--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -404,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.746928746928747</v>
+        <v>0.673719376391982</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06218487394958</v>
+        <v>1.01769911504425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.926136363636364</v>
+        <v>0.793103448275862</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0442260442260442</v>
+        <v>-0.0679287305122494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.542857142857143</v>
+        <v>0.51819075712881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.494318181818182</v>
+        <v>0.289408866995074</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557739557739558</v>
+        <v>0.469933184855234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.547899159663866</v>
+        <v>0.569321533923304</v>
       </c>
       <c r="D4" t="n">
-        <v>0.650568181818182</v>
+        <v>0.3435960591133</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41031941031941</v>
+        <v>0.380846325167038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.41344537815126</v>
+        <v>0.384464110127827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.721590909090909</v>
+        <v>0.429802955665025</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +460,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.559183673469388</v>
+        <v>0.489603024574669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.635097493036212</v>
+        <v>0.636060100166945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784403669724771</v>
+        <v>0.455670103092783</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.594594594594595</v>
+        <v>0.525612472160356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823529411764706</v>
+        <v>0.814159292035398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.849431818181818</v>
+        <v>0.566502463054187</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.681632653061224</v>
+        <v>0.603024574669187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.643454038997215</v>
+        <v>0.662771285475793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.720183486238532</v>
+        <v>0.48659793814433</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.330612244897959</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.311977715877437</v>
+        <v>0.345575959933222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.490825688073394</v>
+        <v>0.25979381443299</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.355102040816327</v>
+        <v>0.194706994328922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.649025069637883</v>
+        <v>0.622704507512521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.587155963302752</v>
+        <v>0.410309278350515</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0979591836734694</v>
+        <v>0.0472589792060491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.286908077994429</v>
+        <v>0.196994991652755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206422018348624</v>
+        <v>-0.0268041237113402</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -410,7 +410,7 @@
         <v>1.01769911504425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793103448275862</v>
+        <v>0.789281364190012</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         <v>0.51819075712881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.289408866995074</v>
+        <v>0.288672350791717</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.569321533923304</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3435960591133</v>
+        <v>0.343483556638246</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>0.384464110127827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.429802955665025</v>
+        <v>0.426309378806334</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>0.636060100166945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.455670103092783</v>
+        <v>0.453061224489796</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +480,7 @@
         <v>0.814159292035398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.566502463054187</v>
+        <v>0.566382460414129</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>0.662771285475793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.48659793814433</v>
+        <v>0.487755102040816</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>0.345575959933222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25979381443299</v>
+        <v>0.263265306122449</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>0.622704507512521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.410309278350515</v>
+        <v>0.414285714285714</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>0.196994991652755</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0268041237113402</v>
+        <v>-0.0224489795918367</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -404,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.673719376391982</v>
+        <v>0.694</v>
       </c>
       <c r="C2" t="n">
         <v>1.01769911504425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.789281364190012</v>
+        <v>0.747138397502601</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0679287305122494</v>
+        <v>-0.076</v>
       </c>
       <c r="C3" t="n">
         <v>0.51819075712881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.288672350791717</v>
+        <v>0.27159209157128</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.469933184855234</v>
+        <v>0.478</v>
       </c>
       <c r="C4" t="n">
         <v>0.569321533923304</v>
       </c>
       <c r="D4" t="n">
-        <v>0.343483556638246</v>
+        <v>0.315296566077003</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.380846325167038</v>
+        <v>0.399</v>
       </c>
       <c r="C5" t="n">
         <v>0.384464110127827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.426309378806334</v>
+        <v>0.411030176899063</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +460,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.489603024574669</v>
+        <v>0.490467937608319</v>
       </c>
       <c r="C6" t="n">
         <v>0.636060100166945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.453061224489796</v>
+        <v>0.410434782608696</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.525612472160356</v>
+        <v>0.542</v>
       </c>
       <c r="C7" t="n">
         <v>0.814159292035398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.566382460414129</v>
+        <v>0.541103017689906</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.603024574669187</v>
+        <v>0.610051993067591</v>
       </c>
       <c r="C8" t="n">
         <v>0.662771285475793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.487755102040816</v>
+        <v>0.459130434782609</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260869565217391</v>
+        <v>0.27209705372617</v>
       </c>
       <c r="C9" t="n">
         <v>0.345575959933222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.263265306122449</v>
+        <v>0.234782608695652</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.194706994328922</v>
+        <v>0.199306759098787</v>
       </c>
       <c r="C10" t="n">
         <v>0.622704507512521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.414285714285714</v>
+        <v>0.354782608695652</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0472589792060491</v>
+        <v>0.0623916811091854</v>
       </c>
       <c r="C11" t="n">
         <v>0.196994991652755</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0224489795918367</v>
+        <v>-0.0591304347826087</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -12,48 +12,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">solidarity_support_billionaire_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_corporate_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_expanding_security_council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_foreign_aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_debt_relief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_bridgetown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_loss_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_ncqg_300bn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_shipping_levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_aviation_levy</t>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on carbon emissions from shipping,
+financing countries' budgets in proportion to their population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levy on aviation carbon emissions,
+returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -398,145 +428,376 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.694</v>
+        <v>1.05050007538669</v>
       </c>
       <c r="C2" t="n">
-        <v>1.01769911504425</v>
+        <v>0.921186538053423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.747138397502601</v>
+        <v>0.94491500880121</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.580858085808581</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.993865382268031</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.876016857692897</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.893298854300487</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.766435638226776</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.939098924868772</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.881794252754468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.076</v>
+        <v>0.572108429888194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.51819075712881</v>
+        <v>0.57417446802171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27159209157128</v>
+        <v>0.796519286715509</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.293729372937294</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.167186228784368</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.476956986324452</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.450862593748596</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.156415996679182</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.582421219321496</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.731433049241168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.478</v>
+        <v>0.432907499278968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.569321533923304</v>
+        <v>0.645811582377765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.315296566077003</v>
+        <v>0.793715265784597</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.182618261826183</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.344959144620498</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.746759004110411</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.646803825798295</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.570142180706108</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.474509026564016</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.476695533640769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.399</v>
+        <v>0.352790994374195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.384464110127827</v>
+        <v>0.385004576558156</v>
       </c>
       <c r="D5" t="n">
-        <v>0.411030176899063</v>
+        <v>0.630291777596926</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.32675986762081</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.853149180923829</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.67566765880284</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0156243044184191</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.248988791928362</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.774564558257541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.490467937608319</v>
+        <v>0.392256834873603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.636060100166945</v>
+        <v>0.388058564637856</v>
       </c>
       <c r="D6" t="n">
-        <v>0.410434782608696</v>
+        <v>0.74896567912805</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.253025302530253</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.315572868563552</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.973451810149695</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.535404488091553</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.127436824494209</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.327386066801714</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.256399097084555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.542</v>
+        <v>0.586900241854847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.814159292035398</v>
+        <v>0.699618123699114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.541103017689906</v>
+        <v>0.892267990772417</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.313531353135314</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.567824463722356</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.865851660047567</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.817221568931101</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.407377495709404</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.639052231433329</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.661220091484067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.610051993067591</v>
+        <v>0.434456847791782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.662771285475793</v>
+        <v>0.572006281247749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.459130434782609</v>
+        <v>0.784097851464014</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.281628162816282</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.399036066782333</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.995451023357207</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.668801834562109</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.379802742684842</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.518398837414204</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.58250773862151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.27209705372617</v>
+        <v>0.39981516591937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.345575959933222</v>
+        <v>0.542590188891873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234782608695652</v>
+        <v>0.637375788591589</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0297029702970297</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.247744507561263</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.786421255397258</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.562865118713079</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.00616205084415395</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.239119910344675</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.472335755752688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.199306759098787</v>
+        <v>0.724719098061138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.622704507512521</v>
+        <v>0.457494801695788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.354782608695652</v>
+        <v>0.739516049529538</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0748074807480748</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.208445494788608</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.702827016012953</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.567463532989631</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.479075356361181</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.465306059342128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.701273367896051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0623916811091854</v>
+        <v>0.342733463608085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.196994991652755</v>
+        <v>0.0831536076174239</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0591304347826087</v>
+        <v>0.315439125876396</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.0627062706270627</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.0384961068915692</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.348742589059096</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.19177711066054</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.259552285468336</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.197372119625786</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.291431284132972</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -51,14 +51,30 @@
 wealth, in voluntary countries</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
@@ -66,24 +82,8 @@
 payments until they are more able to repay</t>
   </si>
   <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from shipping,
-financing countries' budgets in proportion to their population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levy on aviation carbon emissions,
-returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>1.05050007538669</v>
+        <v>0.978178359917518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.921186538053423</v>
+        <v>0.908666722154025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.94491500880121</v>
+        <v>0.940528143959868</v>
       </c>
       <c r="E2" t="n">
         <v>0.580858085808581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.993865382268031</v>
+        <v>1.0045512425399</v>
       </c>
       <c r="G2" t="n">
-        <v>0.876016857692897</v>
+        <v>0.863724380466357</v>
       </c>
       <c r="H2" t="n">
-        <v>0.893298854300487</v>
+        <v>0.891293138325172</v>
       </c>
       <c r="I2" t="n">
-        <v>0.766435638226776</v>
+        <v>0.845355433228545</v>
       </c>
       <c r="J2" t="n">
-        <v>0.939098924868772</v>
+        <v>0.937847064274433</v>
       </c>
       <c r="K2" t="n">
-        <v>0.881794252754468</v>
+        <v>0.777737249141646</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.572108429888194</v>
+        <v>0.680534143439738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57417446802171</v>
+        <v>0.420502001628287</v>
       </c>
       <c r="D3" t="n">
-        <v>0.796519286715509</v>
+        <v>0.735847471664235</v>
       </c>
       <c r="E3" t="n">
-        <v>0.293729372937294</v>
+        <v>0.0748074807480748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.167186228784368</v>
+        <v>0.244608578124276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.476956986324452</v>
+        <v>0.696470683978305</v>
       </c>
       <c r="H3" t="n">
-        <v>0.450862593748596</v>
+        <v>0.557798096257934</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.156415996679182</v>
+        <v>0.594223832247184</v>
       </c>
       <c r="J3" t="n">
-        <v>0.582421219321496</v>
+        <v>0.472116856214917</v>
       </c>
       <c r="K3" t="n">
-        <v>0.731433049241168</v>
+        <v>0.603983209938034</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.432907499278968</v>
+        <v>0.554967064962203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.645811582377765</v>
+        <v>0.52451415852206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793715265784597</v>
+        <v>0.79258731965845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.182618261826183</v>
+        <v>0.293729372937294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.344959144620498</v>
+        <v>0.192624169300055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.746759004110411</v>
+        <v>0.481633234779003</v>
       </c>
       <c r="H4" t="n">
-        <v>0.646803825798295</v>
+        <v>0.455864155672304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.570142180706108</v>
+        <v>0.0117947400781829</v>
       </c>
       <c r="J4" t="n">
-        <v>0.474509026564016</v>
+        <v>0.591403259034606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.476695533640769</v>
+        <v>0.639898866323771</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.352790994374195</v>
+        <v>0.546419773933213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.385004576558156</v>
+        <v>0.702053103889501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.630291777596926</v>
+        <v>0.888206197661708</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0792079207920792</v>
+        <v>0.313531353135314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.32675986762081</v>
+        <v>0.600411675160116</v>
       </c>
       <c r="G5" t="n">
-        <v>0.853149180923829</v>
+        <v>0.858438826016065</v>
       </c>
       <c r="H5" t="n">
-        <v>0.67566765880284</v>
+        <v>0.820275941550997</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0156243044184191</v>
+        <v>0.507223169800073</v>
       </c>
       <c r="J5" t="n">
-        <v>0.248988791928362</v>
+        <v>0.662601438703749</v>
       </c>
       <c r="K5" t="n">
-        <v>0.774564558257541</v>
+        <v>0.572082580151143</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.392256834873603</v>
+        <v>0.432017655217183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.388058564637856</v>
+        <v>0.6182834960517</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74896567912805</v>
+        <v>0.790085224142338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.253025302530253</v>
+        <v>0.182618261826183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.315572868563552</v>
+        <v>0.370760495796879</v>
       </c>
       <c r="G6" t="n">
-        <v>0.973451810149695</v>
+        <v>0.739733476695246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.535404488091553</v>
+        <v>0.641854420414733</v>
       </c>
       <c r="I6" t="n">
-        <v>0.127436824494209</v>
+        <v>0.614636537641104</v>
       </c>
       <c r="J6" t="n">
-        <v>0.327386066801714</v>
+        <v>0.464694876002175</v>
       </c>
       <c r="K6" t="n">
-        <v>0.256399097084555</v>
+        <v>0.432540722836364</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.586900241854847</v>
+        <v>0.418290808899465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.699618123699114</v>
+        <v>0.555617495971709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.892267990772417</v>
+        <v>0.780218613377089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.313531353135314</v>
+        <v>0.281628162816282</v>
       </c>
       <c r="F7" t="n">
-        <v>0.567824463722356</v>
+        <v>0.411848881567664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.865851660047567</v>
+        <v>0.986039229909815</v>
       </c>
       <c r="H7" t="n">
-        <v>0.817221568931101</v>
+        <v>0.674640642204605</v>
       </c>
       <c r="I7" t="n">
-        <v>0.407377495709404</v>
+        <v>0.472208399731845</v>
       </c>
       <c r="J7" t="n">
-        <v>0.639052231433329</v>
+        <v>0.530362726275477</v>
       </c>
       <c r="K7" t="n">
-        <v>0.661220091484067</v>
+        <v>0.46801834659124</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.434456847791782</v>
+        <v>0.382221189715909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.572006281247749</v>
+        <v>0.511929668826848</v>
       </c>
       <c r="D8" t="n">
-        <v>0.784097851464014</v>
+        <v>0.634741552481873</v>
       </c>
       <c r="E8" t="n">
-        <v>0.281628162816282</v>
+        <v>-0.0297029702970297</v>
       </c>
       <c r="F8" t="n">
-        <v>0.399036066782333</v>
+        <v>0.24816334203399</v>
       </c>
       <c r="G8" t="n">
-        <v>0.995451023357207</v>
+        <v>0.778682622377391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.668801834562109</v>
+        <v>0.558063503237909</v>
       </c>
       <c r="I8" t="n">
-        <v>0.379802742684842</v>
+        <v>0.140052968954623</v>
       </c>
       <c r="J8" t="n">
-        <v>0.518398837414204</v>
+        <v>0.255904369086782</v>
       </c>
       <c r="K8" t="n">
-        <v>0.58250773862151</v>
+        <v>0.394559008326686</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39981516591937</v>
+        <v>0.33532647681406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.542590188891873</v>
+        <v>0.371388713833175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.637375788591589</v>
+        <v>0.626825980585752</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0297029702970297</v>
+        <v>0.0792079207920792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.247744507561263</v>
+        <v>0.345981490370883</v>
       </c>
       <c r="G9" t="n">
-        <v>0.786421255397258</v>
+        <v>0.849877984950729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.562865118713079</v>
+        <v>0.700579597842424</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.00616205084415395</v>
+        <v>0.128110799111062</v>
       </c>
       <c r="J9" t="n">
-        <v>0.239119910344675</v>
+        <v>0.260396869564455</v>
       </c>
       <c r="K9" t="n">
-        <v>0.472335755752688</v>
+        <v>0.67346189215452</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.724719098061138</v>
+        <v>0.322175958115635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.457494801695788</v>
+        <v>0.339946740024001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.739516049529538</v>
+        <v>0.745442289589698</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0748074807480748</v>
+        <v>0.253025302530253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.208445494788608</v>
+        <v>0.349102855821793</v>
       </c>
       <c r="G10" t="n">
-        <v>0.702827016012953</v>
+        <v>0.963367275041412</v>
       </c>
       <c r="H10" t="n">
-        <v>0.567463532989631</v>
+        <v>0.555171253006721</v>
       </c>
       <c r="I10" t="n">
-        <v>0.479075356361181</v>
+        <v>0.325872530945344</v>
       </c>
       <c r="J10" t="n">
-        <v>0.465306059342128</v>
+        <v>0.323456901821012</v>
       </c>
       <c r="K10" t="n">
-        <v>0.701273367896051</v>
+        <v>0.219337856165522</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.342733463608085</v>
+        <v>0.313278815882346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0831536076174239</v>
+        <v>0.0676723708478146</v>
       </c>
       <c r="D11" t="n">
-        <v>0.315439125876396</v>
+        <v>0.313659549554238</v>
       </c>
       <c r="E11" t="n">
         <v>-0.0627062706270627</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0384961068915692</v>
+        <v>0.00494342896583567</v>
       </c>
       <c r="G11" t="n">
-        <v>0.348742589059096</v>
+        <v>0.343915160309604</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19177711066054</v>
+        <v>0.162822159196904</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.259552285468336</v>
+        <v>-0.191670906216337</v>
       </c>
       <c r="J11" t="n">
-        <v>0.197372119625786</v>
+        <v>0.205884389261704</v>
       </c>
       <c r="K11" t="n">
-        <v>0.291431284132972</v>
+        <v>0.166065536097271</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -55,16 +55,16 @@
 shipping, returned to countries based on population</t>
   </si>
   <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.978178359917518</v>
+        <v>0.855890689656483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.908666722154025</v>
+        <v>0.853998394028079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.940528143959868</v>
+        <v>1.07028173752802</v>
       </c>
       <c r="E2" t="n">
-        <v>0.580858085808581</v>
+        <v>0.334085778781038</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0045512425399</v>
+        <v>0.949457316683673</v>
       </c>
       <c r="G2" t="n">
-        <v>0.863724380466357</v>
+        <v>0.915882644504229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.891293138325172</v>
+        <v>0.926866730720301</v>
       </c>
       <c r="I2" t="n">
-        <v>0.845355433228545</v>
+        <v>0.890513256862131</v>
       </c>
       <c r="J2" t="n">
-        <v>0.937847064274433</v>
+        <v>0.922131842563044</v>
       </c>
       <c r="K2" t="n">
-        <v>0.777737249141646</v>
+        <v>0.897718057704492</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.680534143439738</v>
+        <v>0.580910050978838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420502001628287</v>
+        <v>0.437498032640727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.735847471664235</v>
+        <v>0.876999842146097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0748074807480748</v>
+        <v>-0.00677200902934537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.244608578124276</v>
+        <v>0.0392385028869987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.696470683978305</v>
+        <v>0.737650260580946</v>
       </c>
       <c r="H3" t="n">
-        <v>0.557798096257934</v>
+        <v>0.468410188047633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.594223832247184</v>
+        <v>0.608389120295564</v>
       </c>
       <c r="J3" t="n">
-        <v>0.472116856214917</v>
+        <v>0.507369239859266</v>
       </c>
       <c r="K3" t="n">
-        <v>0.603983209938034</v>
+        <v>0.762264457583625</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.554967064962203</v>
+        <v>0.475372956361109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.52451415852206</v>
+        <v>0.813065136400061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79258731965845</v>
+        <v>0.959377243794177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.293729372937294</v>
+        <v>0.160270880361174</v>
       </c>
       <c r="F4" t="n">
-        <v>0.192624169300055</v>
+        <v>0.639221011149954</v>
       </c>
       <c r="G4" t="n">
-        <v>0.481633234779003</v>
+        <v>0.898251232178287</v>
       </c>
       <c r="H4" t="n">
-        <v>0.455864155672304</v>
+        <v>0.850887280202825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0117947400781829</v>
+        <v>0.607963099276</v>
       </c>
       <c r="J4" t="n">
-        <v>0.591403259034606</v>
+        <v>0.731735317546465</v>
       </c>
       <c r="K4" t="n">
-        <v>0.639898866323771</v>
+        <v>0.976924625179074</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.546419773933213</v>
+        <v>0.382659252857707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.702053103889501</v>
+        <v>0.69455151984527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.888206197661708</v>
+        <v>0.878193119287881</v>
       </c>
       <c r="E5" t="n">
-        <v>0.313531353135314</v>
+        <v>0.214446952595937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.600411675160116</v>
+        <v>0.395687122648681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.858438826016065</v>
+        <v>0.759083174910114</v>
       </c>
       <c r="H5" t="n">
-        <v>0.820275941550997</v>
+        <v>0.695704635240264</v>
       </c>
       <c r="I5" t="n">
-        <v>0.507223169800073</v>
+        <v>0.54655739740026</v>
       </c>
       <c r="J5" t="n">
-        <v>0.662601438703749</v>
+        <v>0.495207845585209</v>
       </c>
       <c r="K5" t="n">
-        <v>0.572082580151143</v>
+        <v>0.460602616167619</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.432017655217183</v>
+        <v>0.374222156636718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6182834960517</v>
+        <v>0.571620587115173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.790085224142338</v>
+        <v>0.800693033117837</v>
       </c>
       <c r="E6" t="n">
-        <v>0.182618261826183</v>
+        <v>0.137697516930023</v>
       </c>
       <c r="F6" t="n">
-        <v>0.370760495796879</v>
+        <v>0.0651216471104992</v>
       </c>
       <c r="G6" t="n">
-        <v>0.739733476695246</v>
+        <v>0.423532920797628</v>
       </c>
       <c r="H6" t="n">
-        <v>0.641854420414733</v>
+        <v>0.333831860541852</v>
       </c>
       <c r="I6" t="n">
-        <v>0.614636537641104</v>
+        <v>0.102886123892757</v>
       </c>
       <c r="J6" t="n">
-        <v>0.464694876002175</v>
+        <v>0.516437074908239</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432540722836364</v>
+        <v>0.749257153061144</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.418290808899465</v>
+        <v>0.369474364308964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.555617495971709</v>
+        <v>0.52661324012353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.780218613377089</v>
+        <v>0.902588616288335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.281628162816282</v>
+        <v>0.144469525959368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.411848881567664</v>
+        <v>0.253854281337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.986039229909815</v>
+        <v>0.986371170703953</v>
       </c>
       <c r="H7" t="n">
-        <v>0.674640642204605</v>
+        <v>0.757977385864183</v>
       </c>
       <c r="I7" t="n">
-        <v>0.472208399731845</v>
+        <v>0.617374875359096</v>
       </c>
       <c r="J7" t="n">
-        <v>0.530362726275477</v>
+        <v>0.654369945720387</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46801834659124</v>
+        <v>0.624287787298296</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.382221189715909</v>
+        <v>0.308932832386511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.511929668826848</v>
+        <v>0.462400930301334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.634741552481873</v>
+        <v>0.752680332825157</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0297029702970297</v>
+        <v>0.00677200902934537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24816334203399</v>
+        <v>0.154945655347212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.778682622377391</v>
+        <v>0.806151616857339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.558063503237909</v>
+        <v>0.591138852971878</v>
       </c>
       <c r="I8" t="n">
-        <v>0.140052968954623</v>
+        <v>0.371545641263171</v>
       </c>
       <c r="J8" t="n">
-        <v>0.255904369086782</v>
+        <v>0.325308908336703</v>
       </c>
       <c r="K8" t="n">
-        <v>0.394559008326686</v>
+        <v>0.466571607207652</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.33532647681406</v>
+        <v>0.210575939128328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.371388713833175</v>
+        <v>0.476585583642096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.626825980585752</v>
+        <v>0.795361991955361</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0792079207920792</v>
+        <v>0.036117381489842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.345981490370883</v>
+        <v>0.325544771270237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.849877984950729</v>
+        <v>0.901323894592695</v>
       </c>
       <c r="H9" t="n">
-        <v>0.700579597842424</v>
+        <v>0.709104483923801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.128110799111062</v>
+        <v>0.435144353808009</v>
       </c>
       <c r="J9" t="n">
-        <v>0.260396869564455</v>
+        <v>0.396297547853502</v>
       </c>
       <c r="K9" t="n">
-        <v>0.67346189215452</v>
+        <v>0.897237997982703</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.322175958115635</v>
+        <v>0.208835077162708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.339946740024001</v>
+        <v>0.609758801701055</v>
       </c>
       <c r="D10" t="n">
-        <v>0.745442289589698</v>
+        <v>0.743979701361731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253025302530253</v>
+        <v>0.322799097065463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.349102855821793</v>
+        <v>0.580005847778124</v>
       </c>
       <c r="G10" t="n">
-        <v>0.963367275041412</v>
+        <v>0.979546366337799</v>
       </c>
       <c r="H10" t="n">
-        <v>0.555171253006721</v>
+        <v>0.674479121502292</v>
       </c>
       <c r="I10" t="n">
-        <v>0.325872530945344</v>
+        <v>0.260150107579579</v>
       </c>
       <c r="J10" t="n">
-        <v>0.323456901821012</v>
+        <v>0.338146958263795</v>
       </c>
       <c r="K10" t="n">
-        <v>0.219337856165522</v>
+        <v>0.481758257233932</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.313278815882346</v>
+        <v>0.195647911110578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0676723708478146</v>
+        <v>0.109834799622045</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313659549554238</v>
+        <v>0.544156685774244</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0627062706270627</v>
+        <v>-0.0880361173814899</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00494342896583567</v>
+        <v>-0.176940161913464</v>
       </c>
       <c r="G11" t="n">
-        <v>0.343915160309604</v>
+        <v>0.331164943286095</v>
       </c>
       <c r="H11" t="n">
-        <v>0.162822159196904</v>
+        <v>0.0603965925010965</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.191670906216337</v>
+        <v>0.180905523949576</v>
       </c>
       <c r="J11" t="n">
-        <v>0.205884389261704</v>
+        <v>0.30034522655156</v>
       </c>
       <c r="K11" t="n">
-        <v>0.166065536097271</v>
+        <v>0.288378263199466</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -59,23 +59,23 @@
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.855890689656483</v>
+        <v>0.842675714833407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.853998394028079</v>
+        <v>0.900150261537017</v>
       </c>
       <c r="D2" t="n">
-        <v>1.07028173752802</v>
+        <v>1.22414076353919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334085778781038</v>
+        <v>0.538841818522041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.949457316683673</v>
+        <v>0.704078233343177</v>
       </c>
       <c r="G2" t="n">
-        <v>0.915882644504229</v>
+        <v>0.801737847776893</v>
       </c>
       <c r="H2" t="n">
-        <v>0.926866730720301</v>
+        <v>0.975347871946892</v>
       </c>
       <c r="I2" t="n">
-        <v>0.890513256862131</v>
+        <v>0.664407252927103</v>
       </c>
       <c r="J2" t="n">
-        <v>0.922131842563044</v>
+        <v>0.877166991177346</v>
       </c>
       <c r="K2" t="n">
-        <v>0.897718057704492</v>
+        <v>0.645743134630588</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.580910050978838</v>
+        <v>0.586073481371312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437498032640727</v>
+        <v>0.289675550078293</v>
       </c>
       <c r="D3" t="n">
-        <v>0.876999842146097</v>
+        <v>0.746425591680767</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00677200902934537</v>
+        <v>0.112873559231238</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392385028869987</v>
+        <v>0.114468843834616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.737650260580946</v>
+        <v>0.669813892796315</v>
       </c>
       <c r="H3" t="n">
-        <v>0.468410188047633</v>
+        <v>0.546653215313562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.608389120295564</v>
+        <v>0.335720441591071</v>
       </c>
       <c r="J3" t="n">
-        <v>0.507369239859266</v>
+        <v>0.531876582984508</v>
       </c>
       <c r="K3" t="n">
-        <v>0.762264457583625</v>
+        <v>0.253039698673707</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.475372956361109</v>
+        <v>0.530681516713295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.813065136400061</v>
+        <v>0.699883564821601</v>
       </c>
       <c r="D4" t="n">
-        <v>0.959377243794177</v>
+        <v>0.992692048726794</v>
       </c>
       <c r="E4" t="n">
-        <v>0.160270880361174</v>
+        <v>0.376831520520598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.639221011149954</v>
+        <v>0.372789018149031</v>
       </c>
       <c r="G4" t="n">
-        <v>0.898251232178287</v>
+        <v>0.790564034920947</v>
       </c>
       <c r="H4" t="n">
-        <v>0.850887280202825</v>
+        <v>0.875542324334732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.607963099276</v>
+        <v>0.535680020787025</v>
       </c>
       <c r="J4" t="n">
-        <v>0.731735317546465</v>
+        <v>0.681240081522434</v>
       </c>
       <c r="K4" t="n">
-        <v>0.976924625179074</v>
+        <v>0.470540649097644</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.382659252857707</v>
+        <v>0.377756499769243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.69455151984527</v>
+        <v>0.598101890566982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.878193119287881</v>
+        <v>0.834624388883801</v>
       </c>
       <c r="E5" t="n">
-        <v>0.214446952595937</v>
+        <v>0.31373812439779</v>
       </c>
       <c r="F5" t="n">
-        <v>0.395687122648681</v>
+        <v>0.346784542516441</v>
       </c>
       <c r="G5" t="n">
-        <v>0.759083174910114</v>
+        <v>0.919710330583281</v>
       </c>
       <c r="H5" t="n">
-        <v>0.695704635240264</v>
+        <v>0.837724739821254</v>
       </c>
       <c r="I5" t="n">
-        <v>0.54655739740026</v>
+        <v>0.515350989329495</v>
       </c>
       <c r="J5" t="n">
-        <v>0.495207845585209</v>
+        <v>0.494591958390181</v>
       </c>
       <c r="K5" t="n">
-        <v>0.460602616167619</v>
+        <v>0.410232472509821</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.374222156636718</v>
+        <v>0.363223093724848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.571620587115173</v>
+        <v>0.517122083710735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.800693033117837</v>
+        <v>0.765545258706492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.137697516930023</v>
+        <v>0.345461991234698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0651216471104992</v>
+        <v>0.155580203215766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.423532920797628</v>
+        <v>0.343521742429592</v>
       </c>
       <c r="H6" t="n">
-        <v>0.333831860541852</v>
+        <v>0.491455914708014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.102886123892757</v>
+        <v>-0.0346364196493263</v>
       </c>
       <c r="J6" t="n">
-        <v>0.516437074908239</v>
+        <v>0.474241221987036</v>
       </c>
       <c r="K6" t="n">
-        <v>0.749257153061144</v>
+        <v>0.257528863227644</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.369474364308964</v>
+        <v>0.317747968927491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52661324012353</v>
+        <v>0.566501911110107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.902588616288335</v>
+        <v>0.832299870990485</v>
       </c>
       <c r="E7" t="n">
-        <v>0.144469525959368</v>
+        <v>0.240210916939044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.253854281337</v>
+        <v>0.310388060626281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.986371170703953</v>
+        <v>0.679081894216044</v>
       </c>
       <c r="H7" t="n">
-        <v>0.757977385864183</v>
+        <v>0.712577919860547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.617374875359096</v>
+        <v>0.406185271414603</v>
       </c>
       <c r="J7" t="n">
-        <v>0.654369945720387</v>
+        <v>0.405026246356994</v>
       </c>
       <c r="K7" t="n">
-        <v>0.624287787298296</v>
+        <v>0.283019217758499</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.308932832386511</v>
+        <v>0.30128326651221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.462400930301334</v>
+        <v>0.403084027478874</v>
       </c>
       <c r="D8" t="n">
-        <v>0.752680332825157</v>
+        <v>0.698078230520041</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00677200902934537</v>
+        <v>0.135664641130233</v>
       </c>
       <c r="F8" t="n">
-        <v>0.154945655347212</v>
+        <v>0.203251766064849</v>
       </c>
       <c r="G8" t="n">
-        <v>0.806151616857339</v>
+        <v>0.798431240533348</v>
       </c>
       <c r="H8" t="n">
-        <v>0.591138852971878</v>
+        <v>0.782310483171694</v>
       </c>
       <c r="I8" t="n">
-        <v>0.371545641263171</v>
+        <v>0.329774338437757</v>
       </c>
       <c r="J8" t="n">
-        <v>0.325308908336703</v>
+        <v>0.366393942569134</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466571607207652</v>
+        <v>0.365051903837605</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.210575939128328</v>
+        <v>0.278494849427265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.476585583642096</v>
+        <v>0.45174002190475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.795361991955361</v>
+        <v>0.694050326664235</v>
       </c>
       <c r="E9" t="n">
-        <v>0.036117381489842</v>
+        <v>0.090198189578724</v>
       </c>
       <c r="F9" t="n">
-        <v>0.325544771270237</v>
+        <v>0.258389595841614</v>
       </c>
       <c r="G9" t="n">
-        <v>0.901323894592695</v>
+        <v>0.715633884421645</v>
       </c>
       <c r="H9" t="n">
-        <v>0.709104483923801</v>
+        <v>0.684275530175212</v>
       </c>
       <c r="I9" t="n">
-        <v>0.435144353808009</v>
+        <v>0.169175491521187</v>
       </c>
       <c r="J9" t="n">
-        <v>0.396297547853502</v>
+        <v>0.307773886446962</v>
       </c>
       <c r="K9" t="n">
-        <v>0.897237997982703</v>
+        <v>0.236342248148572</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.208835077162708</v>
+        <v>0.146150584677282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.609758801701055</v>
+        <v>0.271719465312782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.743979701361731</v>
+        <v>0.668157706285208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.322799097065463</v>
+        <v>0.193493562218723</v>
       </c>
       <c r="F10" t="n">
-        <v>0.580005847778124</v>
+        <v>0.466696646341733</v>
       </c>
       <c r="G10" t="n">
-        <v>0.979546366337799</v>
+        <v>0.916649307902714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.674479121502292</v>
+        <v>0.642227656510437</v>
       </c>
       <c r="I10" t="n">
-        <v>0.260150107579579</v>
+        <v>0.10516338880091</v>
       </c>
       <c r="J10" t="n">
-        <v>0.338146958263795</v>
+        <v>0.399843502009145</v>
       </c>
       <c r="K10" t="n">
-        <v>0.481758257233932</v>
+        <v>0.323848050258786</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.195647911110578</v>
+        <v>0.0657431267504969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.109834799622045</v>
+        <v>0.137164554323744</v>
       </c>
       <c r="D11" t="n">
-        <v>0.544156685774244</v>
+        <v>0.189672464089668</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0880361173814899</v>
+        <v>-0.0388099855261516</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.176940161913464</v>
+        <v>-0.133683400910217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.331164943286095</v>
+        <v>0.277205880217815</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0603965925010965</v>
+        <v>0.0789708484664161</v>
       </c>
       <c r="I11" t="n">
-        <v>0.180905523949576</v>
+        <v>-0.0683296271456106</v>
       </c>
       <c r="J11" t="n">
-        <v>0.30034522655156</v>
+        <v>0.107112567586495</v>
       </c>
       <c r="K11" t="n">
-        <v>0.288378263199466</v>
+        <v>0.0450107349485995</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,35 +32,31 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum tax of 2% on billionaires'
 wealth, in voluntary countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
 investments in LICs, and at lower interest rates</t>
   </si>
@@ -63,27 +65,31 @@
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -449,355 +455,421 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.842675714833407</v>
+        <v>0.748622289651083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.900150261537017</v>
+        <v>0.914857031329629</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22414076353919</v>
+        <v>0.858118153338717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.538841818522041</v>
+        <v>0.918667329458524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.704078233343177</v>
+        <v>1.11715026420077</v>
       </c>
       <c r="G2" t="n">
-        <v>0.801737847776893</v>
+        <v>0.724078566780068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.975347871946892</v>
+        <v>0.933876740701604</v>
       </c>
       <c r="I2" t="n">
-        <v>0.664407252927103</v>
+        <v>0.914822398185619</v>
       </c>
       <c r="J2" t="n">
-        <v>0.877166991177346</v>
+        <v>0.695838027094129</v>
       </c>
       <c r="K2" t="n">
-        <v>0.645743134630588</v>
+        <v>0.539124320068253</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.768387492014391</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.631904437645774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.586073481371312</v>
+        <v>0.586626019373632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289675550078293</v>
+        <v>0.702447869887609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.746425591680767</v>
+        <v>0.514317233046137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.112873559231238</v>
+        <v>0.762827529546235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.114468843834616</v>
+        <v>0.992205848321929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.669813892796315</v>
+        <v>0.370008456037489</v>
       </c>
       <c r="H3" t="n">
-        <v>0.546653215313562</v>
+        <v>0.826959658642234</v>
       </c>
       <c r="I3" t="n">
-        <v>0.335720441591071</v>
+        <v>0.680333594047734</v>
       </c>
       <c r="J3" t="n">
-        <v>0.531876582984508</v>
+        <v>0.540533513203615</v>
       </c>
       <c r="K3" t="n">
-        <v>0.253039698673707</v>
+        <v>0.38012938375151</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.724680451666516</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.519576232554299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.530681516713295</v>
+        <v>0.492045811689459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.699883564821601</v>
+        <v>0.592225061048005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.992692048726794</v>
+        <v>0.36870715156621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.376831520520598</v>
+        <v>0.639005198193326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.372789018149031</v>
+        <v>0.861697369043498</v>
       </c>
       <c r="G4" t="n">
-        <v>0.790564034920947</v>
+        <v>0.320549939992772</v>
       </c>
       <c r="H4" t="n">
-        <v>0.875542324334732</v>
+        <v>0.805713320530976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.535680020787025</v>
+        <v>0.513933156336282</v>
       </c>
       <c r="J4" t="n">
-        <v>0.681240081522434</v>
+        <v>0.594095239504043</v>
       </c>
       <c r="K4" t="n">
-        <v>0.470540649097644</v>
+        <v>0.316903253697664</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.90537102017326</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.405197992350055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.377756499769243</v>
+        <v>0.396953357970164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.598101890566982</v>
+        <v>0.514898860454093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.834624388883801</v>
+        <v>0.311768841095521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.31373812439779</v>
+        <v>0.647211957145363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.346784542516441</v>
+        <v>0.753993584540777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.919710330583281</v>
+        <v>0.326901620636254</v>
       </c>
       <c r="H5" t="n">
-        <v>0.837724739821254</v>
+        <v>0.646439181586309</v>
       </c>
       <c r="I5" t="n">
-        <v>0.515350989329495</v>
+        <v>0.370463502905379</v>
       </c>
       <c r="J5" t="n">
-        <v>0.494591958390181</v>
+        <v>0.382817641154841</v>
       </c>
       <c r="K5" t="n">
-        <v>0.410232472509821</v>
+        <v>0.236818270261265</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.658702879824907</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.29597648336514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.363223093724848</v>
+        <v>0.383672019515626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517122083710735</v>
+        <v>0.481480958561653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.765545258706492</v>
+        <v>0.319812779439432</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345461991234698</v>
+        <v>0.516223699763852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.155580203215766</v>
+        <v>0.68516808139543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.343521742429592</v>
+        <v>0.195777436560431</v>
       </c>
       <c r="H6" t="n">
-        <v>0.491455914708014</v>
+        <v>0.712807850471702</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0346364196493263</v>
+        <v>0.444264485164548</v>
       </c>
       <c r="J6" t="n">
-        <v>0.474241221987036</v>
+        <v>0.256797077685073</v>
       </c>
       <c r="K6" t="n">
-        <v>0.257528863227644</v>
+        <v>0.13264133242821</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.783702233670822</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.333380152955001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317747968927491</v>
+        <v>0.35847831553628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.566501911110107</v>
+        <v>0.484040712140962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.832299870990485</v>
+        <v>0.557573451926455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.240210916939044</v>
+        <v>0.380634086507091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.310388060626281</v>
+        <v>0.759454962153655</v>
       </c>
       <c r="G7" t="n">
-        <v>0.679081894216044</v>
+        <v>0.0851819979113965</v>
       </c>
       <c r="H7" t="n">
-        <v>0.712577919860547</v>
+        <v>0.513283696846483</v>
       </c>
       <c r="I7" t="n">
-        <v>0.406185271414603</v>
+        <v>0.520806424140694</v>
       </c>
       <c r="J7" t="n">
-        <v>0.405026246356994</v>
+        <v>0.391947686009933</v>
       </c>
       <c r="K7" t="n">
-        <v>0.283019217758499</v>
+        <v>0.113366398191634</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.656307703834608</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.281063640228322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.30128326651221</v>
+        <v>0.345351922450455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.403084027478874</v>
+        <v>0.386361540649901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.698078230520041</v>
+        <v>0.108088630735688</v>
       </c>
       <c r="E8" t="n">
-        <v>0.135664641130233</v>
+        <v>0.305241280227667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.203251766064849</v>
+        <v>0.655602363100604</v>
       </c>
       <c r="G8" t="n">
-        <v>0.798431240533348</v>
+        <v>0.466914190871821</v>
       </c>
       <c r="H8" t="n">
-        <v>0.782310483171694</v>
+        <v>0.524506712027134</v>
       </c>
       <c r="I8" t="n">
-        <v>0.329774338437757</v>
+        <v>0.389924524162656</v>
       </c>
       <c r="J8" t="n">
-        <v>0.366393942569134</v>
+        <v>0.201243924790446</v>
       </c>
       <c r="K8" t="n">
-        <v>0.365051903837605</v>
+        <v>0.19651995355996</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.895048551527041</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.307298654926562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.278494849427265</v>
+        <v>0.327062927832754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.45174002190475</v>
+        <v>0.462717622648328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.694050326664235</v>
+        <v>0.372540014727451</v>
       </c>
       <c r="E9" t="n">
-        <v>0.090198189578724</v>
+        <v>0.560019370935782</v>
       </c>
       <c r="F9" t="n">
-        <v>0.258389595841614</v>
+        <v>0.754599859168671</v>
       </c>
       <c r="G9" t="n">
-        <v>0.715633884421645</v>
+        <v>0.143857073511436</v>
       </c>
       <c r="H9" t="n">
-        <v>0.684275530175212</v>
+        <v>0.451082970189385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.169175491521187</v>
+        <v>0.423777113841261</v>
       </c>
       <c r="J9" t="n">
-        <v>0.307773886446962</v>
+        <v>0.0781135290672593</v>
       </c>
       <c r="K9" t="n">
-        <v>0.236342248148572</v>
+        <v>0.349728020299329</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.327667777742934</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.15058451004593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.146150584677282</v>
+        <v>0.312345566446733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271719465312782</v>
+        <v>0.430669313317624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.668157706285208</v>
+        <v>0.243039385375993</v>
       </c>
       <c r="E10" t="n">
-        <v>0.193493562218723</v>
+        <v>0.502732704109617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.466696646341733</v>
+        <v>0.618373611248411</v>
       </c>
       <c r="G10" t="n">
-        <v>0.916649307902714</v>
+        <v>0.234066484448074</v>
       </c>
       <c r="H10" t="n">
-        <v>0.642227656510437</v>
+        <v>0.650479808730941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.10516338880091</v>
+        <v>0.337504492829479</v>
       </c>
       <c r="J10" t="n">
-        <v>0.399843502009145</v>
+        <v>0.246676081268866</v>
       </c>
       <c r="K10" t="n">
-        <v>0.323848050258786</v>
+        <v>0.0911921479462049</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.702148586379804</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.225032238188208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0657431267504969</v>
+        <v>0.0160889828633604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.137164554323744</v>
+        <v>0.064975585387021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189672464089668</v>
+        <v>0.0539174839270544</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0388099855261516</v>
+        <v>0.170648914523834</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.133683400910217</v>
+        <v>0.145147815342137</v>
       </c>
       <c r="G11" t="n">
-        <v>0.277205880217815</v>
+        <v>-0.157116068316771</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0789708484664161</v>
+        <v>0.0281307807059174</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0683296271456106</v>
+        <v>0.0303565260421174</v>
       </c>
       <c r="J11" t="n">
-        <v>0.107112567586495</v>
+        <v>0.0947955114983292</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0450107349485995</v>
+        <v>-0.0432629917645534</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.258624813251407</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0412468850448972</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -69,19 +69,19 @@
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.748622289651083</v>
+        <v>0.740691183824806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.914857031329629</v>
+        <v>0.914111369086715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.858118153338717</v>
+        <v>0.978881424637531</v>
       </c>
       <c r="E2" t="n">
-        <v>0.918667329458524</v>
+        <v>0.880055457899614</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11715026420077</v>
+        <v>0.972023280853481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.724078566780068</v>
+        <v>0.698387971607462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.933876740701604</v>
+        <v>0.887268591315196</v>
       </c>
       <c r="I2" t="n">
-        <v>0.914822398185619</v>
+        <v>0.999469531213412</v>
       </c>
       <c r="J2" t="n">
-        <v>0.695838027094129</v>
+        <v>0.808186572296107</v>
       </c>
       <c r="K2" t="n">
-        <v>0.539124320068253</v>
+        <v>0.556554971586836</v>
       </c>
       <c r="L2" t="n">
-        <v>0.768387492014391</v>
+        <v>0.812886875297492</v>
       </c>
       <c r="M2" t="n">
-        <v>0.631904437645774</v>
+        <v>0.615063131852405</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.586626019373632</v>
+        <v>0.507424370046682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.702447869887609</v>
+        <v>0.628111584531449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.514317233046137</v>
+        <v>0.521259482847754</v>
       </c>
       <c r="E3" t="n">
-        <v>0.762827529546235</v>
+        <v>0.605322799543507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.992205848321929</v>
+        <v>0.862843502771207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.370008456037489</v>
+        <v>0.415669549979176</v>
       </c>
       <c r="H3" t="n">
-        <v>0.826959658642234</v>
+        <v>0.693415850696155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.680333594047734</v>
+        <v>0.635619129017859</v>
       </c>
       <c r="J3" t="n">
-        <v>0.540533513203615</v>
+        <v>0.555324148109051</v>
       </c>
       <c r="K3" t="n">
-        <v>0.38012938375151</v>
+        <v>0.373781469492404</v>
       </c>
       <c r="L3" t="n">
-        <v>0.724680451666516</v>
+        <v>0.81502198906063</v>
       </c>
       <c r="M3" t="n">
-        <v>0.519576232554299</v>
+        <v>0.399943787750696</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.492045811689459</v>
+        <v>0.405917770306686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.592225061048005</v>
+        <v>0.484434301792137</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36870715156621</v>
+        <v>0.363539321150656</v>
       </c>
       <c r="E4" t="n">
-        <v>0.639005198193326</v>
+        <v>0.416649681215277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.861697369043498</v>
+        <v>0.689667334639519</v>
       </c>
       <c r="G4" t="n">
-        <v>0.320549939992772</v>
+        <v>0.394895338772064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.805713320530976</v>
+        <v>0.634177966337249</v>
       </c>
       <c r="I4" t="n">
-        <v>0.513933156336282</v>
+        <v>0.448040208166835</v>
       </c>
       <c r="J4" t="n">
-        <v>0.594095239504043</v>
+        <v>0.500149459431521</v>
       </c>
       <c r="K4" t="n">
-        <v>0.316903253697664</v>
+        <v>0.272902057574647</v>
       </c>
       <c r="L4" t="n">
-        <v>0.90537102017326</v>
+        <v>0.950245870295458</v>
       </c>
       <c r="M4" t="n">
-        <v>0.405197992350055</v>
+        <v>0.323730785485404</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.396953357970164</v>
+        <v>0.374465467449258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.514898860454093</v>
+        <v>0.496156524044897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.311768841095521</v>
+        <v>0.438206522969927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.647211957145363</v>
+        <v>0.437276267995501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.753993584540777</v>
+        <v>0.689909129203831</v>
       </c>
       <c r="G5" t="n">
-        <v>0.326901620636254</v>
+        <v>0.38650196750322</v>
       </c>
       <c r="H5" t="n">
-        <v>0.646439181586309</v>
+        <v>0.552917302526184</v>
       </c>
       <c r="I5" t="n">
-        <v>0.370463502905379</v>
+        <v>0.488502895058839</v>
       </c>
       <c r="J5" t="n">
-        <v>0.382817641154841</v>
+        <v>0.396219992833296</v>
       </c>
       <c r="K5" t="n">
-        <v>0.236818270261265</v>
+        <v>0.228699654014825</v>
       </c>
       <c r="L5" t="n">
-        <v>0.658702879824907</v>
+        <v>0.695251035086584</v>
       </c>
       <c r="M5" t="n">
-        <v>0.29597648336514</v>
+        <v>0.269317796007194</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.383672019515626</v>
+        <v>0.363717089582245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.481480958561653</v>
+        <v>0.521304835228357</v>
       </c>
       <c r="D6" t="n">
-        <v>0.319812779439432</v>
+        <v>0.497068399894201</v>
       </c>
       <c r="E6" t="n">
-        <v>0.516223699763852</v>
+        <v>0.461783076525549</v>
       </c>
       <c r="F6" t="n">
-        <v>0.68516808139543</v>
+        <v>0.895065797350211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.195777436560431</v>
+        <v>0.283801287550036</v>
       </c>
       <c r="H6" t="n">
-        <v>0.712807850471702</v>
+        <v>0.463912728180313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.444264485164548</v>
+        <v>0.483445694621208</v>
       </c>
       <c r="J6" t="n">
-        <v>0.256797077685073</v>
+        <v>0.312822949172219</v>
       </c>
       <c r="K6" t="n">
-        <v>0.13264133242821</v>
+        <v>0.315875426156145</v>
       </c>
       <c r="L6" t="n">
-        <v>0.783702233670822</v>
+        <v>0.476271767467454</v>
       </c>
       <c r="M6" t="n">
-        <v>0.333380152955001</v>
+        <v>0.200593754723239</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35847831553628</v>
+        <v>0.292744187432469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.484040712140962</v>
+        <v>0.356315276743444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.557573451926455</v>
+        <v>0.231226064743878</v>
       </c>
       <c r="E7" t="n">
-        <v>0.380634086507091</v>
+        <v>0.0921658721335549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.759454962153655</v>
+        <v>0.645706093921958</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0851819979113965</v>
+        <v>0.468032669918333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.513283696846483</v>
+        <v>0.49366263582725</v>
       </c>
       <c r="I7" t="n">
-        <v>0.520806424140694</v>
+        <v>0.398306621442613</v>
       </c>
       <c r="J7" t="n">
-        <v>0.391947686009933</v>
+        <v>0.377374002191913</v>
       </c>
       <c r="K7" t="n">
-        <v>0.113366398191634</v>
+        <v>0.207161198394967</v>
       </c>
       <c r="L7" t="n">
-        <v>0.656307703834608</v>
+        <v>0.92211770584057</v>
       </c>
       <c r="M7" t="n">
-        <v>0.281063640228322</v>
+        <v>0.201670375947976</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.345351922450455</v>
+        <v>0.286652681125787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.386361540649901</v>
+        <v>0.42557029468648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108088630735688</v>
+        <v>0.551361191098202</v>
       </c>
       <c r="E8" t="n">
-        <v>0.305241280227667</v>
+        <v>0.305150066366269</v>
       </c>
       <c r="F8" t="n">
-        <v>0.655602363100604</v>
+        <v>0.541420162622242</v>
       </c>
       <c r="G8" t="n">
-        <v>0.466914190871821</v>
+        <v>0.203435769421623</v>
       </c>
       <c r="H8" t="n">
-        <v>0.524506712027134</v>
+        <v>0.49977798996581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.389924524162656</v>
+        <v>0.413282416620146</v>
       </c>
       <c r="J8" t="n">
-        <v>0.201243924790446</v>
+        <v>0.509891892468834</v>
       </c>
       <c r="K8" t="n">
-        <v>0.19651995355996</v>
+        <v>0.0494924724736669</v>
       </c>
       <c r="L8" t="n">
-        <v>0.895048551527041</v>
+        <v>0.615214780477188</v>
       </c>
       <c r="M8" t="n">
-        <v>0.307298654926562</v>
+        <v>0.196462611691354</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.327062927832754</v>
+        <v>0.269944709592104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.462717622648328</v>
+        <v>0.330592318833749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.372540014727451</v>
+        <v>0.283548978841644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.560019370935782</v>
+        <v>0.231859197537856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.754599859168671</v>
+        <v>0.478449327488691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.143857073511436</v>
+        <v>0.161906071497357</v>
       </c>
       <c r="H9" t="n">
-        <v>0.451082970189385</v>
+        <v>0.61764493819135</v>
       </c>
       <c r="I9" t="n">
-        <v>0.423777113841261</v>
+        <v>0.270320190805571</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0781135290672593</v>
+        <v>0.249436981356067</v>
       </c>
       <c r="K9" t="n">
-        <v>0.349728020299329</v>
+        <v>0.0868572466374222</v>
       </c>
       <c r="L9" t="n">
-        <v>0.327667777742934</v>
+        <v>0.790254821981325</v>
       </c>
       <c r="M9" t="n">
-        <v>0.15058451004593</v>
+        <v>0.228089905285</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312345566446733</v>
+        <v>0.261648133320123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.430669313317624</v>
+        <v>0.375508227620532</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243039385375993</v>
+        <v>0.271491334659192</v>
       </c>
       <c r="E10" t="n">
-        <v>0.502732704109617</v>
+        <v>0.407042009024577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.618373611248411</v>
+        <v>0.562526596837815</v>
       </c>
       <c r="G10" t="n">
-        <v>0.234066484448074</v>
+        <v>0.224139901778248</v>
       </c>
       <c r="H10" t="n">
-        <v>0.650479808730941</v>
+        <v>0.525296666678776</v>
       </c>
       <c r="I10" t="n">
-        <v>0.337504492829479</v>
+        <v>0.245017060860569</v>
       </c>
       <c r="J10" t="n">
-        <v>0.246676081268866</v>
+        <v>0.362118882968022</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0911921479462049</v>
+        <v>0.0550625999691305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.702148586379804</v>
+        <v>0.745186282696906</v>
       </c>
       <c r="M10" t="n">
-        <v>0.225032238188208</v>
+        <v>0.173900394859723</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0160889828633604</v>
+        <v>-0.036584719989311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.064975585387021</v>
+        <v>0.0822495370976155</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0539174839270544</v>
+        <v>0.178676781427867</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170648914523834</v>
+        <v>0.111005109693623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.145147815342137</v>
+        <v>0.0183526384223347</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.157116068316771</v>
+        <v>0.0498533464472287</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0281307807059174</v>
+        <v>0.0623035854101192</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0303565260421174</v>
+        <v>0.0327090818396002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0947955114983292</v>
+        <v>0.117170013984619</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0432629917645534</v>
+        <v>-0.0965183065306669</v>
       </c>
       <c r="L11" t="n">
-        <v>0.258624813251407</v>
+        <v>0.36476169199201</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0412468850448972</v>
+        <v>-0.177824116504169</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -65,12 +65,12 @@
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740691183824806</v>
+        <v>0.77427855532404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.914111369086715</v>
+        <v>0.902079157242168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.978881424637531</v>
+        <v>0.968881290034772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.880055457899614</v>
+        <v>0.884862010646095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.972023280853481</v>
+        <v>0.993944263556581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.698387971607462</v>
+        <v>0.700949910375422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.887268591315196</v>
+        <v>0.883535067578313</v>
       </c>
       <c r="I2" t="n">
-        <v>0.999469531213412</v>
+        <v>0.922707387864703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.808186572296107</v>
+        <v>0.731235532112919</v>
       </c>
       <c r="K2" t="n">
-        <v>0.556554971586836</v>
+        <v>0.558027784664043</v>
       </c>
       <c r="L2" t="n">
-        <v>0.812886875297492</v>
+        <v>0.818431957050259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.615063131852405</v>
+        <v>0.712353900705779</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.507424370046682</v>
+        <v>0.537890237159999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.628111584531449</v>
+        <v>0.624815069827643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.521259482847754</v>
+        <v>0.50638844338463</v>
       </c>
       <c r="E3" t="n">
-        <v>0.605322799543507</v>
+        <v>0.599184648927139</v>
       </c>
       <c r="F3" t="n">
-        <v>0.862843502771207</v>
+        <v>0.868945051989274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.415669549979176</v>
+        <v>0.392735108266744</v>
       </c>
       <c r="H3" t="n">
-        <v>0.693415850696155</v>
+        <v>0.699476718240212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.635619129017859</v>
+        <v>0.639402774767339</v>
       </c>
       <c r="J3" t="n">
-        <v>0.555324148109051</v>
+        <v>0.548045936715432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.373781469492404</v>
+        <v>0.373412557946627</v>
       </c>
       <c r="L3" t="n">
-        <v>0.81502198906063</v>
+        <v>0.812446231877342</v>
       </c>
       <c r="M3" t="n">
-        <v>0.399943787750696</v>
+        <v>0.481391366283176</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.405917770306686</v>
+        <v>0.416422777595065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.484434301792137</v>
+        <v>0.478266859227753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.363539321150656</v>
+        <v>0.343533601591599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.416649681215277</v>
+        <v>0.430430768735156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.689667334639519</v>
+        <v>0.711696882293704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.394895338772064</v>
+        <v>0.374441309261279</v>
       </c>
       <c r="H4" t="n">
-        <v>0.634177966337249</v>
+        <v>0.66236365334607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.448040208166835</v>
+        <v>0.406422573343717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.500149459431521</v>
+        <v>0.293538083794908</v>
       </c>
       <c r="K4" t="n">
-        <v>0.272902057574647</v>
+        <v>0.273782794029912</v>
       </c>
       <c r="L4" t="n">
-        <v>0.950245870295458</v>
+        <v>0.94061755666216</v>
       </c>
       <c r="M4" t="n">
-        <v>0.323730785485404</v>
+        <v>0.357740118026036</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.374465467449258</v>
+        <v>0.386608531614452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.496156524044897</v>
+        <v>0.520430215124299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.438206522969927</v>
+        <v>0.508305865204012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.437276267995501</v>
+        <v>0.463700428419561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.689909129203831</v>
+        <v>0.898422069057324</v>
       </c>
       <c r="G5" t="n">
-        <v>0.38650196750322</v>
+        <v>0.276611530130059</v>
       </c>
       <c r="H5" t="n">
-        <v>0.552917302526184</v>
+        <v>0.472381056689035</v>
       </c>
       <c r="I5" t="n">
-        <v>0.488502895058839</v>
+        <v>0.461237025217871</v>
       </c>
       <c r="J5" t="n">
-        <v>0.396219992833296</v>
+        <v>0.25252629810754</v>
       </c>
       <c r="K5" t="n">
-        <v>0.228699654014825</v>
+        <v>0.31969067516186</v>
       </c>
       <c r="L5" t="n">
-        <v>0.695251035086584</v>
+        <v>0.471668846920543</v>
       </c>
       <c r="M5" t="n">
-        <v>0.269317796007194</v>
+        <v>0.257289519646316</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.363717089582245</v>
+        <v>0.368396456460427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.521304835228357</v>
+        <v>0.484435814577341</v>
       </c>
       <c r="D6" t="n">
-        <v>0.497068399894201</v>
+        <v>0.4193067819942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.461783076525549</v>
+        <v>0.431091890287701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.895065797350211</v>
+        <v>0.671120953915863</v>
       </c>
       <c r="G6" t="n">
-        <v>0.283801287550036</v>
+        <v>0.393043704499094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463912728180313</v>
+        <v>0.563892345624905</v>
       </c>
       <c r="I6" t="n">
-        <v>0.483445694621208</v>
+        <v>0.458825448811988</v>
       </c>
       <c r="J6" t="n">
-        <v>0.312822949172219</v>
+        <v>0.332865172234107</v>
       </c>
       <c r="K6" t="n">
-        <v>0.315875426156145</v>
+        <v>0.229430454461974</v>
       </c>
       <c r="L6" t="n">
-        <v>0.476271767467454</v>
+        <v>0.676741930889802</v>
       </c>
       <c r="M6" t="n">
-        <v>0.200593754723239</v>
+        <v>0.267090569703869</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.292744187432469</v>
+        <v>0.315128507739497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.356315276743444</v>
+        <v>0.344329772803652</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231226064743878</v>
+        <v>0.207680736345824</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0921658721335549</v>
+        <v>0.097385046385412</v>
       </c>
       <c r="F7" t="n">
-        <v>0.645706093921958</v>
+        <v>0.660243440604241</v>
       </c>
       <c r="G7" t="n">
-        <v>0.468032669918333</v>
+        <v>0.462624409187622</v>
       </c>
       <c r="H7" t="n">
-        <v>0.49366263582725</v>
+        <v>0.514516130145028</v>
       </c>
       <c r="I7" t="n">
-        <v>0.398306621442613</v>
+        <v>0.329456412859779</v>
       </c>
       <c r="J7" t="n">
-        <v>0.377374002191913</v>
+        <v>0.236739693788096</v>
       </c>
       <c r="K7" t="n">
-        <v>0.207161198394967</v>
+        <v>0.206386099887389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.92211770584057</v>
+        <v>0.92301699186261</v>
       </c>
       <c r="M7" t="n">
-        <v>0.201670375947976</v>
+        <v>0.272265923346955</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286652681125787</v>
+        <v>0.308512730013258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42557029468648</v>
+        <v>0.418357573484991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.551361191098202</v>
+        <v>0.529377338223453</v>
       </c>
       <c r="E8" t="n">
-        <v>0.305150066366269</v>
+        <v>0.301517498317887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.541420162622242</v>
+        <v>0.570356904007579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.203435769421623</v>
+        <v>0.204794794334328</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49977798996581</v>
+        <v>0.517334986577844</v>
       </c>
       <c r="I8" t="n">
-        <v>0.413282416620146</v>
+        <v>0.365470149005101</v>
       </c>
       <c r="J8" t="n">
-        <v>0.509891892468834</v>
+        <v>0.411680843454487</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0494924724736669</v>
+        <v>0.0510457802834698</v>
       </c>
       <c r="L8" t="n">
-        <v>0.615214780477188</v>
+        <v>0.616942860637471</v>
       </c>
       <c r="M8" t="n">
-        <v>0.196462611691354</v>
+        <v>0.259448385244421</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.269944709592104</v>
+        <v>0.274708173505934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.330592318833749</v>
+        <v>0.326536138635501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.283548978841644</v>
+        <v>0.272883124428135</v>
       </c>
       <c r="E9" t="n">
-        <v>0.231859197537856</v>
+        <v>0.237584750735387</v>
       </c>
       <c r="F9" t="n">
-        <v>0.478449327488691</v>
+        <v>0.505076018338557</v>
       </c>
       <c r="G9" t="n">
-        <v>0.161906071497357</v>
+        <v>0.168380843877179</v>
       </c>
       <c r="H9" t="n">
-        <v>0.61764493819135</v>
+        <v>0.616850413061146</v>
       </c>
       <c r="I9" t="n">
-        <v>0.270320190805571</v>
+        <v>0.233362246012468</v>
       </c>
       <c r="J9" t="n">
-        <v>0.249436981356067</v>
+        <v>0.119847421784785</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0868572466374222</v>
+        <v>0.0893441666941611</v>
       </c>
       <c r="L9" t="n">
-        <v>0.790254821981325</v>
+        <v>0.77963952384497</v>
       </c>
       <c r="M9" t="n">
-        <v>0.228089905285</v>
+        <v>0.245107759193729</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261648133320123</v>
+        <v>0.261921524197941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.375508227620532</v>
+        <v>0.367568325788895</v>
       </c>
       <c r="D10" t="n">
-        <v>0.271491334659192</v>
+        <v>0.269944697416769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.407042009024577</v>
+        <v>0.400996533901211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.562526596837815</v>
+        <v>0.57101882413548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.224139901778248</v>
+        <v>0.236329195694916</v>
       </c>
       <c r="H10" t="n">
-        <v>0.525296666678776</v>
+        <v>0.526563391817908</v>
       </c>
       <c r="I10" t="n">
-        <v>0.245017060860569</v>
+        <v>0.215189011484339</v>
       </c>
       <c r="J10" t="n">
-        <v>0.362118882968022</v>
+        <v>0.162563197486644</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0550625999691305</v>
+        <v>0.0535466663239979</v>
       </c>
       <c r="L10" t="n">
-        <v>0.745186282696906</v>
+        <v>0.750810219826723</v>
       </c>
       <c r="M10" t="n">
-        <v>0.173900394859723</v>
+        <v>0.18314295878341</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.036584719989311</v>
+        <v>0.0293452747407742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0822495370976155</v>
+        <v>0.0873116112206358</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178676781427867</v>
+        <v>0.154561869730417</v>
       </c>
       <c r="E11" t="n">
-        <v>0.111005109693623</v>
+        <v>0.11220533750476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0183526384223347</v>
+        <v>0.0808818305799231</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0498533464472287</v>
+        <v>0.043326584108054</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0623035854101192</v>
+        <v>0.12069128593845</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0327090818396002</v>
+        <v>0.0118423489868823</v>
       </c>
       <c r="J11" t="n">
-        <v>0.117170013984619</v>
+        <v>-0.0671970503908838</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0965183065306669</v>
+        <v>-0.095875187151235</v>
       </c>
       <c r="L11" t="n">
-        <v>0.36476169199201</v>
+        <v>0.362965398586404</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.177824116504169</v>
+        <v>-0.0153326005709528</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -77,8 +77,8 @@
 payments until they are more able to repay</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
@@ -88,8 +88,8 @@
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -467,31 +467,31 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.77427855532404</v>
+        <v>0.753397899635801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.902079157242168</v>
+        <v>0.90189045330773</v>
       </c>
       <c r="D2" t="n">
         <v>0.968881290034772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.884862010646095</v>
+        <v>0.893243579420153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.993944263556581</v>
+        <v>1.00724522772219</v>
       </c>
       <c r="G2" t="n">
         <v>0.700949910375422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.883535067578313</v>
+        <v>0.870769552706608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.922707387864703</v>
+        <v>0.905896478054672</v>
       </c>
       <c r="J2" t="n">
-        <v>0.731235532112919</v>
+        <v>0.739673132277509</v>
       </c>
       <c r="K2" t="n">
         <v>0.558027784664043</v>
@@ -500,7 +500,7 @@
         <v>0.818431957050259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.712353900705779</v>
+        <v>0.659353771670858</v>
       </c>
     </row>
     <row r="3">
@@ -508,31 +508,31 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.537890237159999</v>
+        <v>0.517627065233295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.624815069827643</v>
+        <v>0.627300050080522</v>
       </c>
       <c r="D3" t="n">
         <v>0.50638844338463</v>
       </c>
       <c r="E3" t="n">
-        <v>0.599184648927139</v>
+        <v>0.610536384758304</v>
       </c>
       <c r="F3" t="n">
-        <v>0.868945051989274</v>
+        <v>0.866889714228869</v>
       </c>
       <c r="G3" t="n">
         <v>0.392735108266744</v>
       </c>
       <c r="H3" t="n">
-        <v>0.699476718240212</v>
+        <v>0.678025646414329</v>
       </c>
       <c r="I3" t="n">
-        <v>0.639402774767339</v>
+        <v>0.650541732645147</v>
       </c>
       <c r="J3" t="n">
-        <v>0.548045936715432</v>
+        <v>0.586533922576477</v>
       </c>
       <c r="K3" t="n">
         <v>0.373412557946627</v>
@@ -541,7 +541,7 @@
         <v>0.812446231877342</v>
       </c>
       <c r="M3" t="n">
-        <v>0.481391366283176</v>
+        <v>0.42689363754818</v>
       </c>
     </row>
     <row r="4">
@@ -549,31 +549,31 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.416422777595065</v>
+        <v>0.394514162562782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.478266859227753</v>
+        <v>0.472212390748055</v>
       </c>
       <c r="D4" t="n">
         <v>0.343533601591599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.430430768735156</v>
+        <v>0.424469364999611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.711696882293704</v>
+        <v>0.710849147720215</v>
       </c>
       <c r="G4" t="n">
         <v>0.374441309261279</v>
       </c>
       <c r="H4" t="n">
-        <v>0.66236365334607</v>
+        <v>0.648128255456361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.406422573343717</v>
+        <v>0.385158077705549</v>
       </c>
       <c r="J4" t="n">
-        <v>0.293538083794908</v>
+        <v>0.313516774494609</v>
       </c>
       <c r="K4" t="n">
         <v>0.273782794029912</v>
@@ -582,7 +582,7 @@
         <v>0.94061755666216</v>
       </c>
       <c r="M4" t="n">
-        <v>0.357740118026036</v>
+        <v>0.308318798973961</v>
       </c>
     </row>
     <row r="5">
@@ -590,31 +590,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.386608531614452</v>
+        <v>0.379400699849183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.520430215124299</v>
+        <v>0.513671746802416</v>
       </c>
       <c r="D5" t="n">
         <v>0.508305865204012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.463700428419561</v>
+        <v>0.457070654920646</v>
       </c>
       <c r="F5" t="n">
-        <v>0.898422069057324</v>
+        <v>0.897160496277564</v>
       </c>
       <c r="G5" t="n">
         <v>0.276611530130059</v>
       </c>
       <c r="H5" t="n">
-        <v>0.472381056689035</v>
+        <v>0.458131417542386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.461237025217871</v>
+        <v>0.447133353075362</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25252629810754</v>
+        <v>0.20173436087311</v>
       </c>
       <c r="K5" t="n">
         <v>0.31969067516186</v>
@@ -623,7 +623,7 @@
         <v>0.471668846920543</v>
       </c>
       <c r="M5" t="n">
-        <v>0.257289519646316</v>
+        <v>0.246656491562375</v>
       </c>
     </row>
     <row r="6">
@@ -631,31 +631,31 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.368396456460427</v>
+        <v>0.351379668347117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.484435814577341</v>
+        <v>0.48045586731361</v>
       </c>
       <c r="D6" t="n">
         <v>0.4193067819942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.431091890287701</v>
+        <v>0.417746818663301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.671120953915863</v>
+        <v>0.693290389988161</v>
       </c>
       <c r="G6" t="n">
         <v>0.393043704499094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.563892345624905</v>
+        <v>0.541677706572741</v>
       </c>
       <c r="I6" t="n">
-        <v>0.458825448811988</v>
+        <v>0.444933507024659</v>
       </c>
       <c r="J6" t="n">
-        <v>0.332865172234107</v>
+        <v>0.345278912612423</v>
       </c>
       <c r="K6" t="n">
         <v>0.229430454461974</v>
@@ -664,7 +664,7 @@
         <v>0.676741930889802</v>
       </c>
       <c r="M6" t="n">
-        <v>0.267090569703869</v>
+        <v>0.228140660369904</v>
       </c>
     </row>
     <row r="7">
@@ -672,31 +672,31 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.315128507739497</v>
+        <v>0.308712874381025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.344329772803652</v>
+        <v>0.34916226969508</v>
       </c>
       <c r="D7" t="n">
         <v>0.207680736345824</v>
       </c>
       <c r="E7" t="n">
-        <v>0.097385046385412</v>
+        <v>0.104579238735683</v>
       </c>
       <c r="F7" t="n">
-        <v>0.660243440604241</v>
+        <v>0.663343133490769</v>
       </c>
       <c r="G7" t="n">
         <v>0.462624409187622</v>
       </c>
       <c r="H7" t="n">
-        <v>0.514516130145028</v>
+        <v>0.506356258943627</v>
       </c>
       <c r="I7" t="n">
-        <v>0.329456412859779</v>
+        <v>0.340550665941564</v>
       </c>
       <c r="J7" t="n">
-        <v>0.236739693788096</v>
+        <v>0.270187019383455</v>
       </c>
       <c r="K7" t="n">
         <v>0.206386099887389</v>
@@ -705,7 +705,7 @@
         <v>0.92301699186261</v>
       </c>
       <c r="M7" t="n">
-        <v>0.272265923346955</v>
+        <v>0.250563290958576</v>
       </c>
     </row>
     <row r="8">
@@ -713,31 +713,31 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.308512730013258</v>
+        <v>0.286219611385225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.418357573484991</v>
+        <v>0.420070933812243</v>
       </c>
       <c r="D8" t="n">
         <v>0.529377338223453</v>
       </c>
       <c r="E8" t="n">
-        <v>0.301517498317887</v>
+        <v>0.315701141647969</v>
       </c>
       <c r="F8" t="n">
-        <v>0.570356904007579</v>
+        <v>0.579102431403761</v>
       </c>
       <c r="G8" t="n">
         <v>0.204794794334328</v>
       </c>
       <c r="H8" t="n">
-        <v>0.517334986577844</v>
+        <v>0.494012889139346</v>
       </c>
       <c r="I8" t="n">
-        <v>0.365470149005101</v>
+        <v>0.363293927757661</v>
       </c>
       <c r="J8" t="n">
-        <v>0.411680843454487</v>
+        <v>0.404899779187314</v>
       </c>
       <c r="K8" t="n">
         <v>0.0510457802834698</v>
@@ -746,7 +746,7 @@
         <v>0.616942860637471</v>
       </c>
       <c r="M8" t="n">
-        <v>0.259448385244421</v>
+        <v>0.200665713054139</v>
       </c>
     </row>
     <row r="9">
@@ -754,31 +754,31 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.274708173505934</v>
+        <v>0.264764098913761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.326536138635501</v>
+        <v>0.327139201199015</v>
       </c>
       <c r="D9" t="n">
         <v>0.272883124428135</v>
       </c>
       <c r="E9" t="n">
-        <v>0.237584750735387</v>
+        <v>0.235701389355763</v>
       </c>
       <c r="F9" t="n">
-        <v>0.505076018338557</v>
+        <v>0.513754146094926</v>
       </c>
       <c r="G9" t="n">
         <v>0.168380843877179</v>
       </c>
       <c r="H9" t="n">
-        <v>0.616850413061146</v>
+        <v>0.606655993978919</v>
       </c>
       <c r="I9" t="n">
-        <v>0.233362246012468</v>
+        <v>0.229133307654751</v>
       </c>
       <c r="J9" t="n">
-        <v>0.119847421784785</v>
+        <v>0.162032714790307</v>
       </c>
       <c r="K9" t="n">
         <v>0.0893441666941611</v>
@@ -787,7 +787,7 @@
         <v>0.77963952384497</v>
       </c>
       <c r="M9" t="n">
-        <v>0.245107759193729</v>
+        <v>0.219073273868517</v>
       </c>
     </row>
     <row r="10">
@@ -795,31 +795,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261921524197941</v>
+        <v>0.236291798537734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.367568325788895</v>
+        <v>0.371160982168076</v>
       </c>
       <c r="D10" t="n">
         <v>0.269944697416769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.400996533901211</v>
+        <v>0.40841503145074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.57101882413548</v>
+        <v>0.562639919354195</v>
       </c>
       <c r="G10" t="n">
         <v>0.236329195694916</v>
       </c>
       <c r="H10" t="n">
-        <v>0.526563391817908</v>
+        <v>0.542525844401856</v>
       </c>
       <c r="I10" t="n">
-        <v>0.215189011484339</v>
+        <v>0.215774843069452</v>
       </c>
       <c r="J10" t="n">
-        <v>0.162563197486644</v>
+        <v>0.198835356170994</v>
       </c>
       <c r="K10" t="n">
         <v>0.0535466663239979</v>
@@ -828,7 +828,7 @@
         <v>0.750810219826723</v>
       </c>
       <c r="M10" t="n">
-        <v>0.18314295878341</v>
+        <v>0.113701186788864</v>
       </c>
     </row>
     <row r="11">
@@ -836,31 +836,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0293452747407742</v>
+        <v>-0.00105748643620885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0873116112206358</v>
+        <v>0.0854423694748293</v>
       </c>
       <c r="D11" t="n">
         <v>0.154561869730417</v>
       </c>
       <c r="E11" t="n">
-        <v>0.11220533750476</v>
+        <v>0.12621381032565</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0808818305799231</v>
+        <v>0.075037706351385</v>
       </c>
       <c r="G11" t="n">
         <v>0.043326584108054</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12069128593845</v>
+        <v>0.079148444384816</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0118423489868823</v>
+        <v>0.016769426618786</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0671970503908838</v>
+        <v>-0.0476021860814241</v>
       </c>
       <c r="K11" t="n">
         <v>-0.095875187151235</v>
@@ -869,7 +869,7 @@
         <v>0.362965398586404</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0153326005709528</v>
+        <v>-0.0911930150431422</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -69,16 +69,16 @@
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
 payments until they are more able to repay</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
@@ -88,8 +88,8 @@
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.753397899635801</v>
+        <v>0.759622233344914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.90189045330773</v>
+        <v>0.906470446028383</v>
       </c>
       <c r="D2" t="n">
-        <v>0.968881290034772</v>
+        <v>0.9584983939595</v>
       </c>
       <c r="E2" t="n">
-        <v>0.893243579420153</v>
+        <v>0.900055563475057</v>
       </c>
       <c r="F2" t="n">
-        <v>1.00724522772219</v>
+        <v>1.01451136996354</v>
       </c>
       <c r="G2" t="n">
-        <v>0.700949910375422</v>
+        <v>0.694693895452552</v>
       </c>
       <c r="H2" t="n">
-        <v>0.870769552706608</v>
+        <v>0.878528176684448</v>
       </c>
       <c r="I2" t="n">
-        <v>0.905896478054672</v>
+        <v>0.925148353357808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.739673132277509</v>
+        <v>0.727194022487107</v>
       </c>
       <c r="K2" t="n">
-        <v>0.558027784664043</v>
+        <v>0.555007367355528</v>
       </c>
       <c r="L2" t="n">
-        <v>0.818431957050259</v>
+        <v>0.838079022672235</v>
       </c>
       <c r="M2" t="n">
-        <v>0.659353771670858</v>
+        <v>0.668059823988494</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517627065233295</v>
+        <v>0.525728545379141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.627300050080522</v>
+        <v>0.633624891874628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.50638844338463</v>
+        <v>0.505511615572353</v>
       </c>
       <c r="E3" t="n">
-        <v>0.610536384758304</v>
+        <v>0.609845707049252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.866889714228869</v>
+        <v>0.862948679580326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.392735108266744</v>
+        <v>0.374932440082479</v>
       </c>
       <c r="H3" t="n">
-        <v>0.678025646414329</v>
+        <v>0.691728855962831</v>
       </c>
       <c r="I3" t="n">
-        <v>0.650541732645147</v>
+        <v>0.681145479711872</v>
       </c>
       <c r="J3" t="n">
-        <v>0.586533922576477</v>
+        <v>0.586063551211585</v>
       </c>
       <c r="K3" t="n">
-        <v>0.373412557946627</v>
+        <v>0.376269526706769</v>
       </c>
       <c r="L3" t="n">
-        <v>0.812446231877342</v>
+        <v>0.818935760676569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.42689363754818</v>
+        <v>0.441633900295853</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.394514162562782</v>
+        <v>0.411728088783732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.472212390748055</v>
+        <v>0.479722969796998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.343533601591599</v>
+        <v>0.362170934537205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.424469364999611</v>
+        <v>0.4284207356841</v>
       </c>
       <c r="F4" t="n">
-        <v>0.710849147720215</v>
+        <v>0.712421001374423</v>
       </c>
       <c r="G4" t="n">
-        <v>0.374441309261279</v>
+        <v>0.365054766877479</v>
       </c>
       <c r="H4" t="n">
-        <v>0.648128255456361</v>
+        <v>0.665345838316242</v>
       </c>
       <c r="I4" t="n">
-        <v>0.385158077705549</v>
+        <v>0.412339460908484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.313516774494609</v>
+        <v>0.3543162708179</v>
       </c>
       <c r="K4" t="n">
-        <v>0.273782794029912</v>
+        <v>0.274262095288188</v>
       </c>
       <c r="L4" t="n">
-        <v>0.94061755666216</v>
+        <v>0.950949401086743</v>
       </c>
       <c r="M4" t="n">
-        <v>0.308318798973961</v>
+        <v>0.347980582734372</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.379400699849183</v>
+        <v>0.385848130978712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.513671746802416</v>
+        <v>0.517967838042308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.508305865204012</v>
+        <v>0.500534993325013</v>
       </c>
       <c r="E5" t="n">
-        <v>0.457070654920646</v>
+        <v>0.442438778129857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.897160496277564</v>
+        <v>0.896833057605152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.276611530130059</v>
+        <v>0.257715744277006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.458131417542386</v>
+        <v>0.46614106242587</v>
       </c>
       <c r="I5" t="n">
-        <v>0.447133353075362</v>
+        <v>0.488547592638539</v>
       </c>
       <c r="J5" t="n">
-        <v>0.20173436087311</v>
+        <v>0.251520182144042</v>
       </c>
       <c r="K5" t="n">
-        <v>0.31969067516186</v>
+        <v>0.325513958454641</v>
       </c>
       <c r="L5" t="n">
-        <v>0.471668846920543</v>
+        <v>0.4931141664904</v>
       </c>
       <c r="M5" t="n">
-        <v>0.246656491562375</v>
+        <v>0.255670646722826</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.351379668347117</v>
+        <v>0.362897718544364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.48045586731361</v>
+        <v>0.487555724412609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4193067819942</v>
+        <v>0.413497196144099</v>
       </c>
       <c r="E6" t="n">
-        <v>0.417746818663301</v>
+        <v>0.442976487362507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.693290389988161</v>
+        <v>0.673735709453375</v>
       </c>
       <c r="G6" t="n">
-        <v>0.393043704499094</v>
+        <v>0.367025599116739</v>
       </c>
       <c r="H6" t="n">
-        <v>0.541677706572741</v>
+        <v>0.536435007015151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.444933507024659</v>
+        <v>0.460681629259057</v>
       </c>
       <c r="J6" t="n">
-        <v>0.345278912612423</v>
+        <v>0.336055902495694</v>
       </c>
       <c r="K6" t="n">
-        <v>0.229430454461974</v>
+        <v>0.230445764907372</v>
       </c>
       <c r="L6" t="n">
-        <v>0.676741930889802</v>
+        <v>0.695793632007308</v>
       </c>
       <c r="M6" t="n">
-        <v>0.228140660369904</v>
+        <v>0.249191974036598</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.308712874381025</v>
+        <v>0.326205193453244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.34916226969508</v>
+        <v>0.360628420787266</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207680736345824</v>
+        <v>0.223264447651882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.104579238735683</v>
+        <v>0.116354086118029</v>
       </c>
       <c r="F7" t="n">
-        <v>0.663343133490769</v>
+        <v>0.666057855234037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.462624409187622</v>
+        <v>0.4495815751175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.506356258943627</v>
+        <v>0.507077445683948</v>
       </c>
       <c r="I7" t="n">
-        <v>0.340550665941564</v>
+        <v>0.38786782533149</v>
       </c>
       <c r="J7" t="n">
-        <v>0.270187019383455</v>
+        <v>0.313209196458714</v>
       </c>
       <c r="K7" t="n">
-        <v>0.206386099887389</v>
+        <v>0.20575414548871</v>
       </c>
       <c r="L7" t="n">
-        <v>0.92301699186261</v>
+        <v>0.929483344364327</v>
       </c>
       <c r="M7" t="n">
-        <v>0.250563290958576</v>
+        <v>0.288855239135113</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286219611385225</v>
+        <v>0.306677462719938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.420070933812243</v>
+        <v>0.424675937759487</v>
       </c>
       <c r="D8" t="n">
-        <v>0.529377338223453</v>
+        <v>0.531361037864933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.315701141647969</v>
+        <v>0.306065515367776</v>
       </c>
       <c r="F8" t="n">
-        <v>0.579102431403761</v>
+        <v>0.573065213131727</v>
       </c>
       <c r="G8" t="n">
-        <v>0.204794794334328</v>
+        <v>0.211473595620884</v>
       </c>
       <c r="H8" t="n">
-        <v>0.494012889139346</v>
+        <v>0.48648449910921</v>
       </c>
       <c r="I8" t="n">
-        <v>0.363293927757661</v>
+        <v>0.399275469027799</v>
       </c>
       <c r="J8" t="n">
-        <v>0.404899779187314</v>
+        <v>0.443407327860927</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0510457802834698</v>
+        <v>0.0526985814858529</v>
       </c>
       <c r="L8" t="n">
-        <v>0.616942860637471</v>
+        <v>0.644047830203501</v>
       </c>
       <c r="M8" t="n">
-        <v>0.200665713054139</v>
+        <v>0.249360689758992</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.264764098913761</v>
+        <v>0.280433310707241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.327139201199015</v>
+        <v>0.331408915512933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.272883124428135</v>
+        <v>0.287123146238034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235701389355763</v>
+        <v>0.220531465503326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.513754146094926</v>
+        <v>0.51268202996296</v>
       </c>
       <c r="G9" t="n">
-        <v>0.168380843877179</v>
+        <v>0.153201345426978</v>
       </c>
       <c r="H9" t="n">
-        <v>0.606655993978919</v>
+        <v>0.617453421831321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.229133307654751</v>
+        <v>0.260912655934761</v>
       </c>
       <c r="J9" t="n">
-        <v>0.162032714790307</v>
+        <v>0.202464291769757</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0893441666941611</v>
+        <v>0.0914642729441218</v>
       </c>
       <c r="L9" t="n">
-        <v>0.77963952384497</v>
+        <v>0.799439448834596</v>
       </c>
       <c r="M9" t="n">
-        <v>0.219073273868517</v>
+        <v>0.257417171754832</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236291798537734</v>
+        <v>0.253856224682763</v>
       </c>
       <c r="C10" t="n">
-        <v>0.371160982168076</v>
+        <v>0.379853246879856</v>
       </c>
       <c r="D10" t="n">
-        <v>0.269944697416769</v>
+        <v>0.288005921385907</v>
       </c>
       <c r="E10" t="n">
-        <v>0.40841503145074</v>
+        <v>0.394969115981447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.562639919354195</v>
+        <v>0.558678986017101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.236329195694916</v>
+        <v>0.246708132453142</v>
       </c>
       <c r="H10" t="n">
-        <v>0.542525844401856</v>
+        <v>0.552818175997645</v>
       </c>
       <c r="I10" t="n">
-        <v>0.215774843069452</v>
+        <v>0.280028719703676</v>
       </c>
       <c r="J10" t="n">
-        <v>0.198835356170994</v>
+        <v>0.233726996389081</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0535466663239979</v>
+        <v>0.0538585873100782</v>
       </c>
       <c r="L10" t="n">
-        <v>0.750810219826723</v>
+        <v>0.766393308920165</v>
       </c>
       <c r="M10" t="n">
-        <v>0.113701186788864</v>
+        <v>0.154194132724689</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00105748643620885</v>
+        <v>0.016283825350659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0854423694748293</v>
+        <v>0.0881894987575207</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154561869730417</v>
+        <v>0.162761727524875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12621381032565</v>
+        <v>0.116720526728003</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075037706351385</v>
+        <v>0.0772619727924268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.043326584108054</v>
+        <v>0.0498590364442988</v>
       </c>
       <c r="H11" t="n">
-        <v>0.079148444384816</v>
+        <v>0.0731555752065463</v>
       </c>
       <c r="I11" t="n">
-        <v>0.016769426618786</v>
+        <v>0.0494427205070257</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0476021860814241</v>
+        <v>0.00792073565697627</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.095875187151235</v>
+        <v>-0.0934655923948454</v>
       </c>
       <c r="L11" t="n">
-        <v>0.362965398586404</v>
+        <v>0.397304840690031</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0911930150431422</v>
+        <v>-0.0461840153455352</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.759622233344914</v>
+        <v>0.759312127043204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.906470446028383</v>
+        <v>0.899067107707109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9584983939595</v>
+        <v>0.951313631030903</v>
       </c>
       <c r="E2" t="n">
-        <v>0.900055563475057</v>
+        <v>0.869604054497993</v>
       </c>
       <c r="F2" t="n">
-        <v>1.01451136996354</v>
+        <v>1.01183571414294</v>
       </c>
       <c r="G2" t="n">
-        <v>0.694693895452552</v>
+        <v>0.64681028610321</v>
       </c>
       <c r="H2" t="n">
-        <v>0.878528176684448</v>
+        <v>0.86883007458442</v>
       </c>
       <c r="I2" t="n">
-        <v>0.925148353357808</v>
+        <v>0.939067697443803</v>
       </c>
       <c r="J2" t="n">
-        <v>0.727194022487107</v>
+        <v>0.741809980424021</v>
       </c>
       <c r="K2" t="n">
-        <v>0.555007367355528</v>
+        <v>0.54208926554228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.838079022672235</v>
+        <v>0.844702008923008</v>
       </c>
       <c r="M2" t="n">
-        <v>0.668059823988494</v>
+        <v>0.681819625179219</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.525728545379141</v>
+        <v>0.526546928446986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.633624891874628</v>
+        <v>0.622717294167845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.505511615572353</v>
+        <v>0.500531888330043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.609845707049252</v>
+        <v>0.569056364627645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.862948679580326</v>
+        <v>0.864562234521199</v>
       </c>
       <c r="G3" t="n">
-        <v>0.374932440082479</v>
+        <v>0.306050220846904</v>
       </c>
       <c r="H3" t="n">
-        <v>0.691728855962831</v>
+        <v>0.685511127034902</v>
       </c>
       <c r="I3" t="n">
-        <v>0.681145479711872</v>
+        <v>0.729708508139871</v>
       </c>
       <c r="J3" t="n">
-        <v>0.586063551211585</v>
+        <v>0.565384609904008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.376269526706769</v>
+        <v>0.381605380758696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.818935760676569</v>
+        <v>0.834571283823028</v>
       </c>
       <c r="M3" t="n">
-        <v>0.441633900295853</v>
+        <v>0.455152583155877</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.411728088783732</v>
+        <v>0.420680982327247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.479722969796998</v>
+        <v>0.487373574197681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362170934537205</v>
+        <v>0.36591653698727</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4284207356841</v>
+        <v>0.434921823697749</v>
       </c>
       <c r="F4" t="n">
-        <v>0.712421001374423</v>
+        <v>0.713663570537277</v>
       </c>
       <c r="G4" t="n">
-        <v>0.365054766877479</v>
+        <v>0.344465636120429</v>
       </c>
       <c r="H4" t="n">
-        <v>0.665345838316242</v>
+        <v>0.650280596850207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.412339460908484</v>
+        <v>0.468581077682354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3543162708179</v>
+        <v>0.354161380059063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.274262095288188</v>
+        <v>0.278742514761965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.950949401086743</v>
+        <v>0.958227224438065</v>
       </c>
       <c r="M4" t="n">
-        <v>0.347980582734372</v>
+        <v>0.36449483386235</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.385848130978712</v>
+        <v>0.392920169164717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.517967838042308</v>
+        <v>0.523687810073323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.500534993325013</v>
+        <v>0.488432545266734</v>
       </c>
       <c r="E5" t="n">
-        <v>0.442438778129857</v>
+        <v>0.463528415737963</v>
       </c>
       <c r="F5" t="n">
-        <v>0.896833057605152</v>
+        <v>0.896310327588646</v>
       </c>
       <c r="G5" t="n">
-        <v>0.257715744277006</v>
+        <v>0.223242241830577</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46614106242587</v>
+        <v>0.461373353988713</v>
       </c>
       <c r="I5" t="n">
-        <v>0.488547592638539</v>
+        <v>0.519323835787545</v>
       </c>
       <c r="J5" t="n">
-        <v>0.251520182144042</v>
+        <v>0.25978725026746</v>
       </c>
       <c r="K5" t="n">
-        <v>0.325513958454641</v>
+        <v>0.331128776431993</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4931141664904</v>
+        <v>0.497163901847429</v>
       </c>
       <c r="M5" t="n">
-        <v>0.255670646722826</v>
+        <v>0.266414226280647</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.362897718544364</v>
+        <v>0.369534649040232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.487555724412609</v>
+        <v>0.492563434872145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.413497196144099</v>
+        <v>0.382508576398462</v>
       </c>
       <c r="E6" t="n">
-        <v>0.442976487362507</v>
+        <v>0.466504525543576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.673735709453375</v>
+        <v>0.675638317174231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.367025599116739</v>
+        <v>0.340965649884362</v>
       </c>
       <c r="H6" t="n">
-        <v>0.536435007015151</v>
+        <v>0.539782540352986</v>
       </c>
       <c r="I6" t="n">
-        <v>0.460681629259057</v>
+        <v>0.498286884195477</v>
       </c>
       <c r="J6" t="n">
-        <v>0.336055902495694</v>
+        <v>0.40908858490456</v>
       </c>
       <c r="K6" t="n">
-        <v>0.230445764907372</v>
+        <v>0.229930305720341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.695793632007308</v>
+        <v>0.707615721886186</v>
       </c>
       <c r="M6" t="n">
-        <v>0.249191974036598</v>
+        <v>0.262541406776756</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.326205193453244</v>
+        <v>0.328183141282541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.360628420787266</v>
+        <v>0.366925945043565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.223264447651882</v>
+        <v>0.218677332127399</v>
       </c>
       <c r="E7" t="n">
-        <v>0.116354086118029</v>
+        <v>0.135982701351322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.666057855234037</v>
+        <v>0.664560455495347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4495815751175</v>
+        <v>0.437994926973674</v>
       </c>
       <c r="H7" t="n">
-        <v>0.507077445683948</v>
+        <v>0.496762185332231</v>
       </c>
       <c r="I7" t="n">
-        <v>0.38786782533149</v>
+        <v>0.441736751387392</v>
       </c>
       <c r="J7" t="n">
-        <v>0.313209196458714</v>
+        <v>0.29213655766817</v>
       </c>
       <c r="K7" t="n">
-        <v>0.20575414548871</v>
+        <v>0.202429031291367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.929483344364327</v>
+        <v>0.932399297563257</v>
       </c>
       <c r="M7" t="n">
-        <v>0.288855239135113</v>
+        <v>0.292154611711296</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.306677462719938</v>
+        <v>0.310116970872903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.424675937759487</v>
+        <v>0.420490345740477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531361037864933</v>
+        <v>0.536683844982711</v>
       </c>
       <c r="E8" t="n">
-        <v>0.306065515367776</v>
+        <v>0.307558555086059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.573065213131727</v>
+        <v>0.574957116219404</v>
       </c>
       <c r="G8" t="n">
-        <v>0.211473595620884</v>
+        <v>0.119901621697207</v>
       </c>
       <c r="H8" t="n">
-        <v>0.48648449910921</v>
+        <v>0.465856915676184</v>
       </c>
       <c r="I8" t="n">
-        <v>0.399275469027799</v>
+        <v>0.441669722225902</v>
       </c>
       <c r="J8" t="n">
-        <v>0.443407327860927</v>
+        <v>0.404635709261012</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0526985814858529</v>
+        <v>0.0563084086354476</v>
       </c>
       <c r="L8" t="n">
-        <v>0.644047830203501</v>
+        <v>0.660342805051329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.249360689758992</v>
+        <v>0.262635071272456</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280433310707241</v>
+        <v>0.289317902824654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.331408915512933</v>
+        <v>0.340947849011829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287123146238034</v>
+        <v>0.267827509596419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.220531465503326</v>
+        <v>0.266127934188177</v>
       </c>
       <c r="F9" t="n">
-        <v>0.51268202996296</v>
+        <v>0.513159966971843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.153201345426978</v>
+        <v>0.0950055489582969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.617453421831321</v>
+        <v>0.60555401572668</v>
       </c>
       <c r="I9" t="n">
-        <v>0.260912655934761</v>
+        <v>0.323488971085099</v>
       </c>
       <c r="J9" t="n">
-        <v>0.202464291769757</v>
+        <v>0.25889276224129</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0914642729441218</v>
+        <v>0.0939565076587604</v>
       </c>
       <c r="L9" t="n">
-        <v>0.799439448834596</v>
+        <v>0.808599687276629</v>
       </c>
       <c r="M9" t="n">
-        <v>0.257417171754832</v>
+        <v>0.269914170603018</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253856224682763</v>
+        <v>0.261613822212586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.379853246879856</v>
+        <v>0.385513480941771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.288005921385907</v>
+        <v>0.282328612443547</v>
       </c>
       <c r="E10" t="n">
-        <v>0.394969115981447</v>
+        <v>0.386595005935138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.558678986017101</v>
+        <v>0.564560966610589</v>
       </c>
       <c r="G10" t="n">
-        <v>0.246708132453142</v>
+        <v>0.195137593917434</v>
       </c>
       <c r="H10" t="n">
-        <v>0.552818175997645</v>
+        <v>0.547858472580792</v>
       </c>
       <c r="I10" t="n">
-        <v>0.280028719703676</v>
+        <v>0.355483061828207</v>
       </c>
       <c r="J10" t="n">
-        <v>0.233726996389081</v>
+        <v>0.268682896761476</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0538585873100782</v>
+        <v>0.0603193870621699</v>
       </c>
       <c r="L10" t="n">
-        <v>0.766393308920165</v>
+        <v>0.776081506237869</v>
       </c>
       <c r="M10" t="n">
-        <v>0.154194132724689</v>
+        <v>0.168821177132451</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016283825350659</v>
+        <v>0.0137666768835721</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0881894987575207</v>
+        <v>0.0839217421719148</v>
       </c>
       <c r="D11" t="n">
-        <v>0.162761727524875</v>
+        <v>0.187669811959432</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116720526728003</v>
+        <v>0.0887612365922009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0772619727924268</v>
+        <v>0.0801259627100831</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0498590364442988</v>
+        <v>-0.0183594094253829</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0731555752065463</v>
+        <v>0.0679321304395113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0494427205070257</v>
+        <v>0.0779461502618107</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00792073565697627</v>
+        <v>0.010117471105896</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0934655923948454</v>
+        <v>-0.0960462558585693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.397304840690031</v>
+        <v>0.414946008655522</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0461840153455352</v>
+        <v>-0.046314396837461</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
+vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,23 +68,23 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
-India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.759312127043204</v>
+        <v>0.749027191928549</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
@@ -497,18 +503,21 @@
         <v>0.54208926554228</v>
       </c>
       <c r="L2" t="n">
+        <v>0.68182331344235</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.844702008923008</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.681819625179219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.526546928446986</v>
+        <v>0.54198840408989</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
@@ -538,18 +547,21 @@
         <v>0.381605380758696</v>
       </c>
       <c r="L3" t="n">
+        <v>0.643746350632877</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.834571283823028</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.455152583155877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.420680982327247</v>
+        <v>0.460523876124718</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
@@ -579,100 +591,107 @@
         <v>0.278742514761965</v>
       </c>
       <c r="L4" t="n">
+        <v>0.713734939185789</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.958227224438065</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.36449483386235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392920169164717</v>
+        <v>0.369534649040232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.523687810073323</v>
+        <v>0.492563434872145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.488432545266734</v>
+        <v>0.382508576398462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.463528415737963</v>
+        <v>0.466504525543576</v>
       </c>
       <c r="F5" t="n">
-        <v>0.896310327588646</v>
+        <v>0.675638317174231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.223242241830577</v>
+        <v>0.340965649884362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.461373353988713</v>
+        <v>0.539782540352986</v>
       </c>
       <c r="I5" t="n">
-        <v>0.519323835787545</v>
+        <v>0.498286884195477</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25978725026746</v>
+        <v>0.40908858490456</v>
       </c>
       <c r="K5" t="n">
-        <v>0.331128776431993</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.497163901847429</v>
-      </c>
+        <v>0.229930305720341</v>
+      </c>
+      <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.266414226280647</v>
+        <v>0.707615721886186</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.262541406776756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.369534649040232</v>
+        <v>0.338743823440979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.492563434872145</v>
+        <v>0.340947849011829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.382508576398462</v>
+        <v>0.267827509596419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.466504525543576</v>
+        <v>0.266127934188177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.675638317174231</v>
+        <v>0.513159966971843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.340965649884362</v>
+        <v>0.0950055489582969</v>
       </c>
       <c r="H6" t="n">
-        <v>0.539782540352986</v>
+        <v>0.60555401572668</v>
       </c>
       <c r="I6" t="n">
-        <v>0.498286884195477</v>
+        <v>0.323488971085099</v>
       </c>
       <c r="J6" t="n">
-        <v>0.40908858490456</v>
+        <v>0.25889276224129</v>
       </c>
       <c r="K6" t="n">
-        <v>0.229930305720341</v>
+        <v>0.0939565076587604</v>
       </c>
       <c r="L6" t="n">
-        <v>0.707615721886186</v>
+        <v>0.648415038979496</v>
       </c>
       <c r="M6" t="n">
-        <v>0.262541406776756</v>
+        <v>0.808599687276629</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.269914170603018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328183141282541</v>
+        <v>0.33619748770017</v>
       </c>
       <c r="C7" t="n">
         <v>0.366925945043565</v>
@@ -702,100 +721,109 @@
         <v>0.202429031291367</v>
       </c>
       <c r="L7" t="n">
+        <v>0.389195959658957</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.932399297563257</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.292154611711296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.310116970872903</v>
+        <v>0.328137716869082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.420490345740477</v>
+        <v>0.523687810073323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.536683844982711</v>
+        <v>0.488432545266734</v>
       </c>
       <c r="E8" t="n">
-        <v>0.307558555086059</v>
+        <v>0.463528415737963</v>
       </c>
       <c r="F8" t="n">
-        <v>0.574957116219404</v>
+        <v>0.896310327588646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.119901621697207</v>
+        <v>0.223242241830577</v>
       </c>
       <c r="H8" t="n">
-        <v>0.465856915676184</v>
+        <v>0.461373353988713</v>
       </c>
       <c r="I8" t="n">
-        <v>0.441669722225902</v>
+        <v>0.519323835787545</v>
       </c>
       <c r="J8" t="n">
-        <v>0.404635709261012</v>
+        <v>0.25978725026746</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0563084086354476</v>
+        <v>0.331128776431993</v>
       </c>
       <c r="L8" t="n">
-        <v>0.660342805051329</v>
+        <v>-0.0837425949288072</v>
       </c>
       <c r="M8" t="n">
-        <v>0.262635071272456</v>
+        <v>0.497163901847429</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.266414226280647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.289317902824654</v>
+        <v>0.321103567979159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.340947849011829</v>
+        <v>0.420490345740477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267827509596419</v>
+        <v>0.536683844982711</v>
       </c>
       <c r="E9" t="n">
-        <v>0.266127934188177</v>
+        <v>0.307558555086059</v>
       </c>
       <c r="F9" t="n">
-        <v>0.513159966971843</v>
+        <v>0.574957116219404</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0950055489582969</v>
+        <v>0.119901621697207</v>
       </c>
       <c r="H9" t="n">
-        <v>0.60555401572668</v>
+        <v>0.465856915676184</v>
       </c>
       <c r="I9" t="n">
-        <v>0.323488971085099</v>
+        <v>0.441669722225902</v>
       </c>
       <c r="J9" t="n">
-        <v>0.25889276224129</v>
+        <v>0.404635709261012</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0939565076587604</v>
+        <v>0.0563084086354476</v>
       </c>
       <c r="L9" t="n">
-        <v>0.808599687276629</v>
+        <v>0.387221716875924</v>
       </c>
       <c r="M9" t="n">
-        <v>0.269914170603018</v>
+        <v>0.660342805051329</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.262635071272456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261613822212586</v>
+        <v>0.320058099090913</v>
       </c>
       <c r="C10" t="n">
         <v>0.385513480941771</v>
@@ -825,18 +853,21 @@
         <v>0.0603193870621699</v>
       </c>
       <c r="L10" t="n">
+        <v>0.690803114734702</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.776081506237869</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.168821177132451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0137666768835721</v>
+        <v>0.0165354753353227</v>
       </c>
       <c r="C11" t="n">
         <v>0.0839217421719148</v>
@@ -866,9 +897,12 @@
         <v>-0.0960462558585693</v>
       </c>
       <c r="L11" t="n">
+        <v>0.0256582935754871</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.414946008655522</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>-0.046314396837461</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.749027191928549</v>
+        <v>0.749064910972662</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
@@ -503,7 +503,7 @@
         <v>0.54208926554228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.68182331344235</v>
+        <v>0.681644702528852</v>
       </c>
       <c r="M2" t="n">
         <v>0.844702008923008</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.54198840408989</v>
+        <v>0.542680266370495</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
@@ -547,7 +547,7 @@
         <v>0.381605380758696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.643746350632877</v>
+        <v>0.650670094316197</v>
       </c>
       <c r="M3" t="n">
         <v>0.834571283823028</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.460523876124718</v>
+        <v>0.459993531461853</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
@@ -591,7 +591,7 @@
         <v>0.278742514761965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.713734939185789</v>
+        <v>0.709647369439277</v>
       </c>
       <c r="M4" t="n">
         <v>0.958227224438065</v>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.338743823440979</v>
+        <v>0.338740248995696</v>
       </c>
       <c r="C6" t="n">
         <v>0.340947849011829</v>
@@ -677,7 +677,7 @@
         <v>0.0939565076587604</v>
       </c>
       <c r="L6" t="n">
-        <v>0.648415038979496</v>
+        <v>0.647181679134282</v>
       </c>
       <c r="M6" t="n">
         <v>0.808599687276629</v>
@@ -691,10 +691,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33619748770017</v>
+        <v>0.335800193805223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.366925945043565</v>
+        <v>0.366925945043564</v>
       </c>
       <c r="D7" t="n">
         <v>0.218677332127399</v>
@@ -721,7 +721,7 @@
         <v>0.202429031291367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.389195959658957</v>
+        <v>0.38650276524167</v>
       </c>
       <c r="M7" t="n">
         <v>0.932399297563257</v>
@@ -735,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.328137716869082</v>
+        <v>0.327293644315663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.523687810073323</v>
+        <v>0.523687810073322</v>
       </c>
       <c r="D8" t="n">
         <v>0.488432545266734</v>
@@ -765,7 +765,7 @@
         <v>0.331128776431993</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0837425949288072</v>
+        <v>-0.0875518835702433</v>
       </c>
       <c r="M8" t="n">
         <v>0.497163901847429</v>
@@ -779,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.321103567979159</v>
+        <v>0.320848668771811</v>
       </c>
       <c r="C9" t="n">
         <v>0.420490345740477</v>
@@ -809,7 +809,7 @@
         <v>0.0563084086354476</v>
       </c>
       <c r="L9" t="n">
-        <v>0.387221716875924</v>
+        <v>0.38559301199995</v>
       </c>
       <c r="M9" t="n">
         <v>0.660342805051329</v>
@@ -823,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.320058099090913</v>
+        <v>0.319900444600978</v>
       </c>
       <c r="C10" t="n">
         <v>0.385513480941771</v>
@@ -853,7 +853,7 @@
         <v>0.0603193870621699</v>
       </c>
       <c r="L10" t="n">
-        <v>0.690803114734702</v>
+        <v>0.689638281319547</v>
       </c>
       <c r="M10" t="n">
         <v>0.776081506237869</v>
@@ -867,10 +867,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0165354753353227</v>
+        <v>0.0166316481631581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0839217421719148</v>
+        <v>0.0839217421719147</v>
       </c>
       <c r="D11" t="n">
         <v>0.187669811959432</v>
@@ -897,7 +897,7 @@
         <v>-0.0960462558585693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0256582935754871</v>
+        <v>0.027183714511368</v>
       </c>
       <c r="M11" t="n">
         <v>0.414946008655522</v>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -68,19 +68,19 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.749064910972662</v>
+        <v>0.744386881121362</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
@@ -503,7 +503,7 @@
         <v>0.54208926554228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.681644702528852</v>
+        <v>0.650516678087879</v>
       </c>
       <c r="M2" t="n">
         <v>0.844702008923008</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.542680266370495</v>
+        <v>0.539519237088218</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
@@ -547,7 +547,7 @@
         <v>0.381605380758696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.650670094316197</v>
+        <v>0.62733909707771</v>
       </c>
       <c r="M3" t="n">
         <v>0.834571283823028</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459993531461853</v>
+        <v>0.458531133781306</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
@@ -591,7 +591,7 @@
         <v>0.278742514761965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.709647369439277</v>
+        <v>0.701142356844379</v>
       </c>
       <c r="M4" t="n">
         <v>0.958227224438065</v>
@@ -605,41 +605,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.369534649040232</v>
+        <v>0.336663915685529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.492563434872145</v>
+        <v>0.340947849011829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.382508576398462</v>
+        <v>0.267827509596419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.466504525543576</v>
+        <v>0.266127934188177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.675638317174231</v>
+        <v>0.513159966971843</v>
       </c>
       <c r="G5" t="n">
-        <v>0.340965649884362</v>
+        <v>0.0950055489582969</v>
       </c>
       <c r="H5" t="n">
-        <v>0.539782540352986</v>
+        <v>0.60555401572668</v>
       </c>
       <c r="I5" t="n">
-        <v>0.498286884195477</v>
+        <v>0.323488971085099</v>
       </c>
       <c r="J5" t="n">
-        <v>0.40908858490456</v>
+        <v>0.25889276224129</v>
       </c>
       <c r="K5" t="n">
-        <v>0.229930305720341</v>
-      </c>
-      <c r="L5"/>
+        <v>0.0939565076587604</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.636887453022506</v>
+      </c>
       <c r="M5" t="n">
-        <v>0.707615721886186</v>
+        <v>0.808599687276629</v>
       </c>
       <c r="N5" t="n">
-        <v>0.262541406776756</v>
+        <v>0.269914170603018</v>
       </c>
     </row>
     <row r="6">
@@ -647,43 +649,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.338740248995696</v>
+        <v>0.333653647468452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.340947849011829</v>
+        <v>0.366925945043564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267827509596419</v>
+        <v>0.218677332127399</v>
       </c>
       <c r="E6" t="n">
-        <v>0.266127934188177</v>
+        <v>0.135982701351322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.513159966971843</v>
+        <v>0.664560455495347</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0950055489582969</v>
+        <v>0.437994926973674</v>
       </c>
       <c r="H6" t="n">
-        <v>0.60555401572668</v>
+        <v>0.496762185332231</v>
       </c>
       <c r="I6" t="n">
-        <v>0.323488971085099</v>
+        <v>0.441736751387392</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25889276224129</v>
+        <v>0.29213655766817</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0939565076587604</v>
+        <v>0.202429031291367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.647181679134282</v>
+        <v>0.373834833505223</v>
       </c>
       <c r="M6" t="n">
-        <v>0.808599687276629</v>
+        <v>0.932399297563257</v>
       </c>
       <c r="N6" t="n">
-        <v>0.269914170603018</v>
+        <v>0.292154611711296</v>
       </c>
     </row>
     <row r="7">
@@ -691,43 +693,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.335800193805223</v>
+        <v>0.328352351803956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.366925945043564</v>
+        <v>0.523687810073323</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218677332127399</v>
+        <v>0.488432545266734</v>
       </c>
       <c r="E7" t="n">
-        <v>0.135982701351322</v>
+        <v>0.463528415737963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.664560455495347</v>
+        <v>0.896310327588646</v>
       </c>
       <c r="G7" t="n">
-        <v>0.437994926973674</v>
+        <v>0.223242241830577</v>
       </c>
       <c r="H7" t="n">
-        <v>0.496762185332231</v>
+        <v>0.461373353988713</v>
       </c>
       <c r="I7" t="n">
-        <v>0.441736751387392</v>
+        <v>0.519323835787545</v>
       </c>
       <c r="J7" t="n">
-        <v>0.29213655766817</v>
+        <v>0.25978725026746</v>
       </c>
       <c r="K7" t="n">
-        <v>0.202429031291367</v>
+        <v>0.331128776431993</v>
       </c>
       <c r="L7" t="n">
-        <v>0.38650276524167</v>
+        <v>-0.080025210199837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.932399297563257</v>
+        <v>0.497163901847429</v>
       </c>
       <c r="N7" t="n">
-        <v>0.292154611711296</v>
+        <v>0.266414226280647</v>
       </c>
     </row>
     <row r="8">
@@ -735,43 +737,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.327293644315663</v>
+        <v>0.321059513541112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.523687810073322</v>
+        <v>0.492563434872145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.488432545266734</v>
+        <v>0.382508576398462</v>
       </c>
       <c r="E8" t="n">
-        <v>0.463528415737963</v>
+        <v>0.466504525543576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.896310327588646</v>
+        <v>0.675638317174231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.223242241830577</v>
+        <v>0.340965649884362</v>
       </c>
       <c r="H8" t="n">
-        <v>0.461373353988713</v>
+        <v>0.539782540352986</v>
       </c>
       <c r="I8" t="n">
-        <v>0.519323835787545</v>
+        <v>0.498286884195477</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25978725026746</v>
+        <v>0.40908858490456</v>
       </c>
       <c r="K8" t="n">
-        <v>0.331128776431993</v>
+        <v>0.229930305720341</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0875518835702433</v>
+        <v>0.0107616800013773</v>
       </c>
       <c r="M8" t="n">
-        <v>0.497163901847429</v>
+        <v>0.707615721886186</v>
       </c>
       <c r="N8" t="n">
-        <v>0.266414226280647</v>
+        <v>0.262541406776756</v>
       </c>
     </row>
     <row r="9">
@@ -779,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.320848668771811</v>
+        <v>0.31841123807984</v>
       </c>
       <c r="C9" t="n">
         <v>0.420490345740477</v>
@@ -809,7 +811,7 @@
         <v>0.0563084086354476</v>
       </c>
       <c r="L9" t="n">
-        <v>0.38559301199995</v>
+        <v>0.369383378979967</v>
       </c>
       <c r="M9" t="n">
         <v>0.660342805051329</v>
@@ -823,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.319900444600978</v>
+        <v>0.317414800687998</v>
       </c>
       <c r="C10" t="n">
         <v>0.385513480941771</v>
@@ -853,7 +855,7 @@
         <v>0.0603193870621699</v>
       </c>
       <c r="L10" t="n">
-        <v>0.689638281319547</v>
+        <v>0.673446690200645</v>
       </c>
       <c r="M10" t="n">
         <v>0.776081506237869</v>
@@ -867,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0166316481631581</v>
+        <v>0.0133623665043539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0839217421719147</v>
+        <v>0.0839217421719148</v>
       </c>
       <c r="D11" t="n">
         <v>0.187669811959432</v>
@@ -897,7 +899,7 @@
         <v>-0.0960462558585693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.027183714511368</v>
+        <v>0.00385878470855154</v>
       </c>
       <c r="M11" t="n">
         <v>0.414946008655522</v>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -79,16 +79,16 @@
 allocating revenues to countries based on sales</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.744386881121362</v>
+        <v>0.746758615571303</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
@@ -500,16 +500,16 @@
         <v>0.741809980424021</v>
       </c>
       <c r="K2" t="n">
-        <v>0.54208926554228</v>
+        <v>0.542122761266857</v>
       </c>
       <c r="L2" t="n">
-        <v>0.650516678087879</v>
+        <v>0.661746313849443</v>
       </c>
       <c r="M2" t="n">
         <v>0.844702008923008</v>
       </c>
       <c r="N2" t="n">
-        <v>0.681819625179219</v>
+        <v>0.681562716446534</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.539519237088218</v>
+        <v>0.53880897005617</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
@@ -544,16 +544,16 @@
         <v>0.565384609904008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.381605380758696</v>
+        <v>0.381834133583139</v>
       </c>
       <c r="L3" t="n">
-        <v>0.62733909707771</v>
+        <v>0.622904912769984</v>
       </c>
       <c r="M3" t="n">
         <v>0.834571283823028</v>
       </c>
       <c r="N3" t="n">
-        <v>0.455152583155877</v>
+        <v>0.455071120277596</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458531133781306</v>
+        <v>0.457646793262474</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
@@ -588,16 +588,16 @@
         <v>0.354161380059063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.278742514761965</v>
+        <v>0.278997853200917</v>
       </c>
       <c r="L4" t="n">
-        <v>0.701142356844379</v>
+        <v>0.695125891930721</v>
       </c>
       <c r="M4" t="n">
         <v>0.958227224438065</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36449483386235</v>
+        <v>0.364623737617183</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.336663915685529</v>
+        <v>0.339613614975512</v>
       </c>
       <c r="C5" t="n">
         <v>0.340947849011829</v>
@@ -632,16 +632,16 @@
         <v>0.25889276224129</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0939565076587604</v>
+        <v>0.0941670657798248</v>
       </c>
       <c r="L5" t="n">
-        <v>0.636887453022506</v>
+        <v>0.658406804039628</v>
       </c>
       <c r="M5" t="n">
         <v>0.808599687276629</v>
       </c>
       <c r="N5" t="n">
-        <v>0.269914170603018</v>
+        <v>0.269689420912146</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.333653647468452</v>
+        <v>0.338691995923963</v>
       </c>
       <c r="C6" t="n">
         <v>0.366925945043564</v>
@@ -676,16 +676,16 @@
         <v>0.29213655766817</v>
       </c>
       <c r="K6" t="n">
-        <v>0.202429031291367</v>
+        <v>0.202543021284062</v>
       </c>
       <c r="L6" t="n">
-        <v>0.373834833505223</v>
+        <v>0.409824606520925</v>
       </c>
       <c r="M6" t="n">
         <v>0.932399297563257</v>
       </c>
       <c r="N6" t="n">
-        <v>0.292154611711296</v>
+        <v>0.292119463859774</v>
       </c>
     </row>
     <row r="7">
@@ -693,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328352351803956</v>
+        <v>0.329110709214005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.523687810073323</v>
+        <v>0.523687810073322</v>
       </c>
       <c r="D7" t="n">
         <v>0.488432545266734</v>
@@ -720,16 +720,16 @@
         <v>0.25978725026746</v>
       </c>
       <c r="K7" t="n">
-        <v>0.331128776431993</v>
+        <v>0.331360078821271</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.080025210199837</v>
+        <v>-0.0778417618336274</v>
       </c>
       <c r="M7" t="n">
         <v>0.497163901847429</v>
       </c>
       <c r="N7" t="n">
-        <v>0.266414226280647</v>
+        <v>0.265990222381621</v>
       </c>
     </row>
     <row r="8">
@@ -737,43 +737,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.321059513541112</v>
+        <v>0.320103458109216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.492563434872145</v>
+        <v>0.385513480941771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.382508576398462</v>
+        <v>0.282328612443547</v>
       </c>
       <c r="E8" t="n">
-        <v>0.466504525543576</v>
+        <v>0.386595005935138</v>
       </c>
       <c r="F8" t="n">
-        <v>0.675638317174231</v>
+        <v>0.564560966610589</v>
       </c>
       <c r="G8" t="n">
-        <v>0.340965649884362</v>
+        <v>0.195137593917434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.539782540352986</v>
+        <v>0.547858472580792</v>
       </c>
       <c r="I8" t="n">
-        <v>0.498286884195477</v>
+        <v>0.355483061828207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.40908858490456</v>
+        <v>0.268682896761476</v>
       </c>
       <c r="K8" t="n">
-        <v>0.229930305720341</v>
+        <v>0.0605446304055215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0107616800013773</v>
+        <v>0.697267347192898</v>
       </c>
       <c r="M8" t="n">
-        <v>0.707615721886186</v>
+        <v>0.776081506237869</v>
       </c>
       <c r="N8" t="n">
-        <v>0.262541406776756</v>
+        <v>0.168711740455824</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.31841123807984</v>
+        <v>0.31788661467437</v>
       </c>
       <c r="C9" t="n">
         <v>0.420490345740477</v>
@@ -808,16 +808,16 @@
         <v>0.404635709261012</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0563084086354476</v>
+        <v>0.0564462476899513</v>
       </c>
       <c r="L9" t="n">
-        <v>0.369383378979967</v>
+        <v>0.36590464407975</v>
       </c>
       <c r="M9" t="n">
         <v>0.660342805051329</v>
       </c>
       <c r="N9" t="n">
-        <v>0.262635071272456</v>
+        <v>0.262398605005224</v>
       </c>
     </row>
     <row r="10">
@@ -825,43 +825,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317414800687998</v>
+        <v>0.315567059102638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.385513480941771</v>
+        <v>0.492563434872145</v>
       </c>
       <c r="D10" t="n">
-        <v>0.282328612443547</v>
+        <v>0.382508576398462</v>
       </c>
       <c r="E10" t="n">
-        <v>0.386595005935138</v>
+        <v>0.466504525543576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.564560966610589</v>
+        <v>0.675638317174231</v>
       </c>
       <c r="G10" t="n">
-        <v>0.195137593917434</v>
+        <v>0.340965649884362</v>
       </c>
       <c r="H10" t="n">
-        <v>0.547858472580792</v>
+        <v>0.539782540352986</v>
       </c>
       <c r="I10" t="n">
-        <v>0.355483061828207</v>
+        <v>0.498286884195477</v>
       </c>
       <c r="J10" t="n">
-        <v>0.268682896761476</v>
+        <v>0.40908858490456</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0603193870621699</v>
+        <v>0.230079232859874</v>
       </c>
       <c r="L10" t="n">
-        <v>0.673446690200645</v>
+        <v>-0.0291282837527572</v>
       </c>
       <c r="M10" t="n">
-        <v>0.776081506237869</v>
+        <v>0.707615721886186</v>
       </c>
       <c r="N10" t="n">
-        <v>0.168821177132451</v>
+        <v>0.262131459596356</v>
       </c>
     </row>
     <row r="11">
@@ -869,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0133623665043539</v>
+        <v>0.00973878914166017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0839217421719148</v>
+        <v>0.0839217421719147</v>
       </c>
       <c r="D11" t="n">
         <v>0.187669811959432</v>
@@ -896,16 +896,16 @@
         <v>0.010117471105896</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0960462558585693</v>
+        <v>-0.0959998598824107</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00385878470855154</v>
+        <v>-0.0180680286245144</v>
       </c>
       <c r="M11" t="n">
         <v>0.414946008655522</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.046314396837461</v>
+        <v>-0.0465102463465209</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_mean.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.746758615571303</v>
+        <v>0.748108439408092</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
@@ -503,7 +503,7 @@
         <v>0.542122761266857</v>
       </c>
       <c r="L2" t="n">
-        <v>0.661746313849443</v>
+        <v>0.670403870413533</v>
       </c>
       <c r="M2" t="n">
         <v>0.844702008923008</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.53880897005617</v>
+        <v>0.538331317889367</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
@@ -547,7 +547,7 @@
         <v>0.381834133583139</v>
       </c>
       <c r="L3" t="n">
-        <v>0.622904912769984</v>
+        <v>0.62055734756295</v>
       </c>
       <c r="M3" t="n">
         <v>0.834571283823028</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.457646793262474</v>
+        <v>0.458387576622686</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
@@ -591,7 +591,7 @@
         <v>0.278997853200917</v>
       </c>
       <c r="L4" t="n">
-        <v>0.695125891930721</v>
+        <v>0.703121504911223</v>
       </c>
       <c r="M4" t="n">
         <v>0.958227224438065</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.339613614975512</v>
+        <v>0.340202418477655</v>
       </c>
       <c r="C5" t="n">
         <v>0.340947849011829</v>
@@ -635,7 +635,7 @@
         <v>0.0941670657798248</v>
       </c>
       <c r="L5" t="n">
-        <v>0.658406804039628</v>
+        <v>0.66320354832362</v>
       </c>
       <c r="M5" t="n">
         <v>0.808599687276629</v>
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.338691995923963</v>
+        <v>0.33829822989737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.366925945043564</v>
+        <v>0.366925945043565</v>
       </c>
       <c r="D6" t="n">
         <v>0.218677332127399</v>
@@ -679,7 +679,7 @@
         <v>0.202543021284062</v>
       </c>
       <c r="L6" t="n">
-        <v>0.409824606520925</v>
+        <v>0.407151516775038</v>
       </c>
       <c r="M6" t="n">
         <v>0.932399297563257</v>
@@ -693,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.329110709214005</v>
+        <v>0.329346428115222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.523687810073322</v>
+        <v>0.523687810073323</v>
       </c>
       <c r="D7" t="n">
         <v>0.488432545266734</v>
@@ -723,7 +723,7 @@
         <v>0.331360078821271</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0778417618336274</v>
+        <v>-0.0763319799713056</v>
       </c>
       <c r="M7" t="n">
         <v>0.497163901847429</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.320103458109216</v>
+        <v>0.320249242216214</v>
       </c>
       <c r="C8" t="n">
         <v>0.385513480941771</v>
@@ -767,7 +767,7 @@
         <v>0.0605446304055215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.697267347192898</v>
+        <v>0.699570192636595</v>
       </c>
       <c r="M8" t="n">
         <v>0.776081506237869</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.31788661467437</v>
+        <v>0.319190975705175</v>
       </c>
       <c r="C9" t="n">
         <v>0.420490345740477</v>
@@ -811,7 +811,7 @@
         <v>0.0564462476899513</v>
       </c>
       <c r="L9" t="n">
-        <v>0.36590464407975</v>
+        <v>0.377306157800078</v>
       </c>
       <c r="M9" t="n">
         <v>0.660342805051329</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315567059102638</v>
+        <v>0.31547866481026</v>
       </c>
       <c r="C10" t="n">
         <v>0.492563434872145</v>
@@ -855,7 +855,7 @@
         <v>0.230079232859874</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0291282837527572</v>
+        <v>-0.0300563026874272</v>
       </c>
       <c r="M10" t="n">
         <v>0.707615721886186</v>
@@ -869,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00973878914166017</v>
+        <v>0.010244201702362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0839217421719147</v>
+        <v>0.0839217421719148</v>
       </c>
       <c r="D11" t="n">
         <v>0.187669811959432</v>
@@ -899,7 +899,7 @@
         <v>-0.0959998598824107</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0180680286245144</v>
+        <v>-0.0145192493656787</v>
       </c>
       <c r="M11" t="n">
         <v>0.414946008655522</v>
